--- a/ig/nr-change-contained/all-profiles.xlsx
+++ b/ig/nr-change-contained/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:08:55+00:00</t>
+    <t>2023-07-12T08:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3658,10 +3658,10 @@
 </t>
   </si>
   <si>
-    <t>Organisation auteur du document</t>
-  </si>
-  <si>
-    <t>Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut “source” n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].</t>
+    <t>Organisation auteur du document. Un lot de soumission est obligatoirement associé à un auteur. Si l’attribut “source” n’est pas renseigné, autrement dit si l’auteur est une personne morale, la cardinalité est contrainte à [1..1].</t>
+  </si>
+  <si>
+    <t>When the author of the SubmissionSet is an Organization, this extension shall be used.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}

--- a/ig/nr-change-contained/all-profiles.xlsx
+++ b/ig/nr-change-contained/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24053" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24052" uniqueCount="1179">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:12:47+00:00</t>
+    <t>2023-07-12T08:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2656,9 +2656,6 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>XDS typeCode CI-SIS</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J07-XdsTypeCode-CISIS/FHIR/JDV-J07-XdsTypeCode-CISIS</t>
   </si>
   <si>
@@ -3423,6 +3420,9 @@
   </si>
   <si>
     <t>Kind of document (LOINC if possible)</t>
+  </si>
+  <si>
+    <t>XDS typeCode CI-SIS</t>
   </si>
   <si>
     <t>Patient concerné par ce document. La ressource référencée peut être présente sous l’élément DocumentReference.contained ou via le champ identifier.</t>
@@ -4825,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="124">
@@ -4833,7 +4833,7 @@
         <v>4</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="125">
@@ -4849,7 +4849,7 @@
         <v>8</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="127">
@@ -4857,7 +4857,7 @@
         <v>10</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="128">
@@ -4903,7 +4903,7 @@
         <v>21</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="134">
@@ -4947,7 +4947,7 @@
         <v>31</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="140">
@@ -31122,7 +31122,7 @@
         <v>38</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I248" t="s" s="2">
         <v>37</v>
@@ -61748,11 +61748,9 @@
       <c r="Y541" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="Z541" t="s" s="2">
+      <c r="Z541" s="2"/>
+      <c r="AA541" t="s" s="2">
         <v>848</v>
-      </c>
-      <c r="AA541" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="AB541" t="s" s="2">
         <v>37</v>
@@ -61782,7 +61780,7 @@
         <v>37</v>
       </c>
       <c r="AK541" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="542">
@@ -61790,14 +61788,14 @@
         <v>793</v>
       </c>
       <c r="B542" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C542" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F542" s="2"/>
       <c r="G542" t="s" s="2">
@@ -61819,13 +61817,13 @@
         <v>714</v>
       </c>
       <c r="M542" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="N542" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="N542" t="s" s="2">
+      <c r="O542" t="s" s="2">
         <v>854</v>
-      </c>
-      <c r="O542" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="P542" s="2"/>
       <c r="Q542" t="s" s="2">
@@ -61854,11 +61852,11 @@
         <v>123</v>
       </c>
       <c r="Z542" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="AA542" t="s" s="2">
         <v>856</v>
       </c>
-      <c r="AA542" t="s" s="2">
-        <v>857</v>
-      </c>
       <c r="AB542" t="s" s="2">
         <v>37</v>
       </c>
@@ -61875,7 +61873,7 @@
         <v>37</v>
       </c>
       <c r="AG542" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AH542" t="s" s="2">
         <v>38</v>
@@ -61887,7 +61885,7 @@
         <v>37</v>
       </c>
       <c r="AK542" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="543">
@@ -61895,10 +61893,10 @@
         <v>793</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C543" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" t="s" s="2">
@@ -61921,13 +61919,13 @@
         <v>45</v>
       </c>
       <c r="L543" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="M543" t="s" s="2">
         <v>860</v>
       </c>
-      <c r="M543" t="s" s="2">
+      <c r="N543" t="s" s="2">
         <v>861</v>
-      </c>
-      <c r="N543" t="s" s="2">
-        <v>862</v>
       </c>
       <c r="O543" s="2"/>
       <c r="P543" s="2"/>
@@ -61978,7 +61976,7 @@
         <v>37</v>
       </c>
       <c r="AG543" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AH543" t="s" s="2">
         <v>38</v>
@@ -61990,7 +61988,7 @@
         <v>37</v>
       </c>
       <c r="AK543" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="544">
@@ -61998,14 +61996,14 @@
         <v>793</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F544" s="2"/>
       <c r="G544" t="s" s="2">
@@ -62027,13 +62025,13 @@
         <v>79</v>
       </c>
       <c r="M544" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="N544" t="s" s="2">
         <v>866</v>
       </c>
-      <c r="N544" t="s" s="2">
+      <c r="O544" t="s" s="2">
         <v>867</v>
-      </c>
-      <c r="O544" t="s" s="2">
-        <v>868</v>
       </c>
       <c r="P544" s="2"/>
       <c r="Q544" t="s" s="2">
@@ -62083,7 +62081,7 @@
         <v>37</v>
       </c>
       <c r="AG544" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH544" t="s" s="2">
         <v>38</v>
@@ -62103,10 +62101,10 @@
         <v>793</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
@@ -62129,16 +62127,16 @@
         <v>45</v>
       </c>
       <c r="L545" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="M545" t="s" s="2">
         <v>870</v>
       </c>
-      <c r="M545" t="s" s="2">
+      <c r="N545" t="s" s="2">
         <v>871</v>
       </c>
-      <c r="N545" t="s" s="2">
+      <c r="O545" t="s" s="2">
         <v>872</v>
-      </c>
-      <c r="O545" t="s" s="2">
-        <v>873</v>
       </c>
       <c r="P545" s="2"/>
       <c r="Q545" t="s" s="2">
@@ -62188,7 +62186,7 @@
         <v>37</v>
       </c>
       <c r="AG545" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AH545" t="s" s="2">
         <v>38</v>
@@ -62200,7 +62198,7 @@
         <v>37</v>
       </c>
       <c r="AK545" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="546">
@@ -62208,10 +62206,10 @@
         <v>793</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
@@ -62234,16 +62232,16 @@
         <v>37</v>
       </c>
       <c r="L546" t="s" s="2">
+        <v>875</v>
+      </c>
+      <c r="M546" t="s" s="2">
         <v>876</v>
       </c>
-      <c r="M546" t="s" s="2">
+      <c r="N546" t="s" s="2">
         <v>877</v>
       </c>
-      <c r="N546" t="s" s="2">
+      <c r="O546" t="s" s="2">
         <v>878</v>
-      </c>
-      <c r="O546" t="s" s="2">
-        <v>879</v>
       </c>
       <c r="P546" s="2"/>
       <c r="Q546" t="s" s="2">
@@ -62293,7 +62291,7 @@
         <v>37</v>
       </c>
       <c r="AG546" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AH546" t="s" s="2">
         <v>38</v>
@@ -62305,7 +62303,7 @@
         <v>37</v>
       </c>
       <c r="AK546" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="547">
@@ -62313,10 +62311,10 @@
         <v>793</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -62339,16 +62337,16 @@
         <v>37</v>
       </c>
       <c r="L547" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="M547" t="s" s="2">
         <v>882</v>
       </c>
-      <c r="M547" t="s" s="2">
+      <c r="N547" t="s" s="2">
         <v>883</v>
       </c>
-      <c r="N547" t="s" s="2">
+      <c r="O547" t="s" s="2">
         <v>884</v>
-      </c>
-      <c r="O547" t="s" s="2">
-        <v>885</v>
       </c>
       <c r="P547" s="2"/>
       <c r="Q547" t="s" s="2">
@@ -62398,7 +62396,7 @@
         <v>37</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>38</v>
@@ -62418,10 +62416,10 @@
         <v>793</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -62447,13 +62445,13 @@
         <v>151</v>
       </c>
       <c r="M548" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="N548" t="s" s="2">
         <v>887</v>
       </c>
-      <c r="N548" t="s" s="2">
+      <c r="O548" t="s" s="2">
         <v>888</v>
-      </c>
-      <c r="O548" t="s" s="2">
-        <v>889</v>
       </c>
       <c r="P548" s="2"/>
       <c r="Q548" t="s" s="2">
@@ -62503,7 +62501,7 @@
         <v>37</v>
       </c>
       <c r="AG548" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AH548" t="s" s="2">
         <v>38</v>
@@ -62515,7 +62513,7 @@
         <v>37</v>
       </c>
       <c r="AK548" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="549">
@@ -62523,10 +62521,10 @@
         <v>793</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -62626,10 +62624,10 @@
         <v>793</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -62731,10 +62729,10 @@
         <v>793</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -62838,10 +62836,10 @@
         <v>793</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
@@ -62867,13 +62865,13 @@
         <v>119</v>
       </c>
       <c r="M552" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="N552" t="s" s="2">
         <v>895</v>
       </c>
-      <c r="N552" t="s" s="2">
+      <c r="O552" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="O552" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="P552" s="2"/>
       <c r="Q552" t="s" s="2">
@@ -62902,11 +62900,11 @@
         <v>137</v>
       </c>
       <c r="Z552" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="AA552" t="s" s="2">
         <v>898</v>
       </c>
-      <c r="AA552" t="s" s="2">
-        <v>899</v>
-      </c>
       <c r="AB552" t="s" s="2">
         <v>37</v>
       </c>
@@ -62923,7 +62921,7 @@
         <v>37</v>
       </c>
       <c r="AG552" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AH552" t="s" s="2">
         <v>44</v>
@@ -62943,10 +62941,10 @@
         <v>793</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -62969,13 +62967,13 @@
         <v>45</v>
       </c>
       <c r="L553" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="M553" t="s" s="2">
         <v>901</v>
       </c>
-      <c r="M553" t="s" s="2">
+      <c r="N553" t="s" s="2">
         <v>902</v>
-      </c>
-      <c r="N553" t="s" s="2">
-        <v>903</v>
       </c>
       <c r="O553" s="2"/>
       <c r="P553" s="2"/>
@@ -63026,7 +63024,7 @@
         <v>37</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>44</v>
@@ -63038,7 +63036,7 @@
         <v>37</v>
       </c>
       <c r="AK553" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="554">
@@ -63046,10 +63044,10 @@
         <v>793</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -63075,16 +63073,16 @@
         <v>58</v>
       </c>
       <c r="M554" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="N554" t="s" s="2">
         <v>906</v>
       </c>
-      <c r="N554" t="s" s="2">
+      <c r="O554" t="s" s="2">
         <v>907</v>
       </c>
-      <c r="O554" t="s" s="2">
+      <c r="P554" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="P554" t="s" s="2">
-        <v>909</v>
       </c>
       <c r="Q554" t="s" s="2">
         <v>37</v>
@@ -63133,7 +63131,7 @@
         <v>37</v>
       </c>
       <c r="AG554" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AH554" t="s" s="2">
         <v>38</v>
@@ -63153,10 +63151,10 @@
         <v>793</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -63182,16 +63180,16 @@
         <v>714</v>
       </c>
       <c r="M555" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="N555" t="s" s="2">
         <v>911</v>
       </c>
-      <c r="N555" t="s" s="2">
+      <c r="O555" t="s" s="2">
         <v>912</v>
       </c>
-      <c r="O555" t="s" s="2">
+      <c r="P555" t="s" s="2">
         <v>913</v>
-      </c>
-      <c r="P555" t="s" s="2">
-        <v>914</v>
       </c>
       <c r="Q555" t="s" s="2">
         <v>37</v>
@@ -63240,7 +63238,7 @@
         <v>37</v>
       </c>
       <c r="AG555" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AH555" t="s" s="2">
         <v>38</v>
@@ -63252,7 +63250,7 @@
         <v>37</v>
       </c>
       <c r="AK555" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="556">
@@ -63260,10 +63258,10 @@
         <v>793</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -63289,10 +63287,10 @@
         <v>151</v>
       </c>
       <c r="M556" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="N556" t="s" s="2">
         <v>917</v>
-      </c>
-      <c r="N556" t="s" s="2">
-        <v>918</v>
       </c>
       <c r="O556" s="2"/>
       <c r="P556" s="2"/>
@@ -63343,7 +63341,7 @@
         <v>37</v>
       </c>
       <c r="AG556" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AH556" t="s" s="2">
         <v>44</v>
@@ -63363,10 +63361,10 @@
         <v>793</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -63466,10 +63464,10 @@
         <v>793</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -63571,10 +63569,10 @@
         <v>793</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -63678,10 +63676,10 @@
         <v>793</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -63704,13 +63702,13 @@
         <v>45</v>
       </c>
       <c r="L560" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="M560" t="s" s="2">
         <v>923</v>
       </c>
-      <c r="M560" t="s" s="2">
+      <c r="N560" t="s" s="2">
         <v>924</v>
-      </c>
-      <c r="N560" t="s" s="2">
-        <v>925</v>
       </c>
       <c r="O560" s="2"/>
       <c r="P560" s="2"/>
@@ -63761,7 +63759,7 @@
         <v>37</v>
       </c>
       <c r="AG560" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AH560" t="s" s="2">
         <v>44</v>
@@ -63781,10 +63779,10 @@
         <v>793</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -63884,10 +63882,10 @@
         <v>793</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
@@ -63989,10 +63987,10 @@
         <v>793</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -64018,14 +64016,14 @@
         <v>119</v>
       </c>
       <c r="M563" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="N563" t="s" s="2">
         <v>929</v>
-      </c>
-      <c r="N563" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="O563" s="2"/>
       <c r="P563" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="Q563" t="s" s="2">
         <v>37</v>
@@ -64038,7 +64036,7 @@
         <v>37</v>
       </c>
       <c r="U563" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="V563" t="s" s="2">
         <v>37</v>
@@ -64053,28 +64051,28 @@
         <v>137</v>
       </c>
       <c r="Z563" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="AA563" t="s" s="2">
         <v>933</v>
       </c>
-      <c r="AA563" t="s" s="2">
+      <c r="AB563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG563" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="AB563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG563" t="s" s="2">
-        <v>935</v>
       </c>
       <c r="AH563" t="s" s="2">
         <v>38</v>
@@ -64094,10 +64092,10 @@
         <v>793</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -64123,14 +64121,14 @@
         <v>119</v>
       </c>
       <c r="M564" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="N564" t="s" s="2">
         <v>937</v>
-      </c>
-      <c r="N564" t="s" s="2">
-        <v>938</v>
       </c>
       <c r="O564" s="2"/>
       <c r="P564" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="Q564" t="s" s="2">
         <v>37</v>
@@ -64143,7 +64141,7 @@
         <v>37</v>
       </c>
       <c r="U564" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="V564" t="s" s="2">
         <v>37</v>
@@ -64179,7 +64177,7 @@
         <v>37</v>
       </c>
       <c r="AG564" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AH564" t="s" s="2">
         <v>38</v>
@@ -64199,10 +64197,10 @@
         <v>793</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -64225,19 +64223,19 @@
         <v>37</v>
       </c>
       <c r="L565" t="s" s="2">
+        <v>942</v>
+      </c>
+      <c r="M565" t="s" s="2">
         <v>943</v>
       </c>
-      <c r="M565" t="s" s="2">
+      <c r="N565" t="s" s="2">
         <v>944</v>
       </c>
-      <c r="N565" t="s" s="2">
+      <c r="O565" t="s" s="2">
         <v>945</v>
       </c>
-      <c r="O565" t="s" s="2">
+      <c r="P565" t="s" s="2">
         <v>946</v>
-      </c>
-      <c r="P565" t="s" s="2">
-        <v>947</v>
       </c>
       <c r="Q565" t="s" s="2">
         <v>37</v>
@@ -64286,7 +64284,7 @@
         <v>37</v>
       </c>
       <c r="AG565" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AH565" t="s" s="2">
         <v>38</v>
@@ -64306,10 +64304,10 @@
         <v>793</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -64332,19 +64330,19 @@
         <v>45</v>
       </c>
       <c r="L566" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="M566" t="s" s="2">
         <v>950</v>
       </c>
-      <c r="M566" t="s" s="2">
+      <c r="N566" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="N566" t="s" s="2">
+      <c r="O566" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="O566" t="s" s="2">
+      <c r="P566" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="P566" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="Q566" t="s" s="2">
         <v>37</v>
@@ -64357,55 +64355,55 @@
         <v>37</v>
       </c>
       <c r="U566" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="V566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG566" t="s" s="2">
         <v>955</v>
       </c>
-      <c r="V566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG566" t="s" s="2">
+      <c r="AH566" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI566" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK566" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="AH566" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI566" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK566" t="s" s="2">
-        <v>957</v>
       </c>
     </row>
     <row r="567">
@@ -64413,10 +64411,10 @@
         <v>793</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -64442,16 +64440,16 @@
         <v>145</v>
       </c>
       <c r="M567" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="N567" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="N567" t="s" s="2">
+      <c r="O567" t="s" s="2">
         <v>960</v>
       </c>
-      <c r="O567" t="s" s="2">
+      <c r="P567" t="s" s="2">
         <v>961</v>
-      </c>
-      <c r="P567" t="s" s="2">
-        <v>962</v>
       </c>
       <c r="Q567" t="s" s="2">
         <v>37</v>
@@ -64500,7 +64498,7 @@
         <v>37</v>
       </c>
       <c r="AG567" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AH567" t="s" s="2">
         <v>38</v>
@@ -64520,10 +64518,10 @@
         <v>793</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -64546,19 +64544,19 @@
         <v>45</v>
       </c>
       <c r="L568" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M568" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="N568" t="s" s="2">
         <v>965</v>
       </c>
-      <c r="N568" t="s" s="2">
+      <c r="O568" t="s" s="2">
         <v>966</v>
       </c>
-      <c r="O568" t="s" s="2">
+      <c r="P568" t="s" s="2">
         <v>967</v>
-      </c>
-      <c r="P568" t="s" s="2">
-        <v>968</v>
       </c>
       <c r="Q568" t="s" s="2">
         <v>37</v>
@@ -64607,7 +64605,7 @@
         <v>37</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>38</v>
@@ -64627,10 +64625,10 @@
         <v>793</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -64656,14 +64654,14 @@
         <v>58</v>
       </c>
       <c r="M569" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="N569" t="s" s="2">
         <v>971</v>
-      </c>
-      <c r="N569" t="s" s="2">
-        <v>972</v>
       </c>
       <c r="O569" s="2"/>
       <c r="P569" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q569" t="s" s="2">
         <v>37</v>
@@ -64676,43 +64674,43 @@
         <v>37</v>
       </c>
       <c r="U569" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="V569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG569" t="s" s="2">
         <v>974</v>
-      </c>
-      <c r="V569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG569" t="s" s="2">
-        <v>975</v>
       </c>
       <c r="AH569" t="s" s="2">
         <v>38</v>
@@ -64732,10 +64730,10 @@
         <v>793</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -64761,14 +64759,14 @@
         <v>732</v>
       </c>
       <c r="M570" t="s" s="2">
+        <v>976</v>
+      </c>
+      <c r="N570" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="N570" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="O570" s="2"/>
       <c r="P570" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Q570" t="s" s="2">
         <v>37</v>
@@ -64817,7 +64815,7 @@
         <v>37</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AH570" t="s" s="2">
         <v>38</v>
@@ -64837,10 +64835,10 @@
         <v>793</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -64866,13 +64864,13 @@
         <v>97</v>
       </c>
       <c r="M571" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="N571" t="s" s="2">
         <v>982</v>
       </c>
-      <c r="N571" t="s" s="2">
+      <c r="O571" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="O571" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="P571" s="2"/>
       <c r="Q571" t="s" s="2">
@@ -64901,40 +64899,40 @@
         <v>123</v>
       </c>
       <c r="Z571" t="s" s="2">
+        <v>984</v>
+      </c>
+      <c r="AA571" t="s" s="2">
         <v>985</v>
       </c>
-      <c r="AA571" t="s" s="2">
+      <c r="AB571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG571" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="AH571" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI571" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK571" t="s" s="2">
         <v>986</v>
-      </c>
-      <c r="AB571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG571" t="s" s="2">
-        <v>981</v>
-      </c>
-      <c r="AH571" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI571" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK571" t="s" s="2">
-        <v>987</v>
       </c>
     </row>
     <row r="572">
@@ -64942,10 +64940,10 @@
         <v>793</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -64971,13 +64969,13 @@
         <v>151</v>
       </c>
       <c r="M572" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="N572" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="N572" t="s" s="2">
+      <c r="O572" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="O572" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="P572" s="2"/>
       <c r="Q572" t="s" s="2">
@@ -65027,7 +65025,7 @@
         <v>37</v>
       </c>
       <c r="AG572" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AH572" t="s" s="2">
         <v>38</v>
@@ -65047,10 +65045,10 @@
         <v>793</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -65150,10 +65148,10 @@
         <v>793</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
@@ -65255,10 +65253,10 @@
         <v>793</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -65362,10 +65360,10 @@
         <v>793</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -65388,13 +65386,13 @@
         <v>37</v>
       </c>
       <c r="L576" t="s" s="2">
+        <v>995</v>
+      </c>
+      <c r="M576" t="s" s="2">
         <v>996</v>
       </c>
-      <c r="M576" t="s" s="2">
+      <c r="N576" t="s" s="2">
         <v>997</v>
-      </c>
-      <c r="N576" t="s" s="2">
-        <v>998</v>
       </c>
       <c r="O576" s="2"/>
       <c r="P576" s="2"/>
@@ -65445,7 +65443,7 @@
         <v>37</v>
       </c>
       <c r="AG576" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AH576" t="s" s="2">
         <v>38</v>
@@ -65465,10 +65463,10 @@
         <v>793</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -65494,13 +65492,13 @@
         <v>714</v>
       </c>
       <c r="M577" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="N577" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="N577" t="s" s="2">
+      <c r="O577" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="O577" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="P577" s="2"/>
       <c r="Q577" t="s" s="2">
@@ -65529,11 +65527,11 @@
         <v>109</v>
       </c>
       <c r="Z577" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="AA577" t="s" s="2">
         <v>1003</v>
       </c>
-      <c r="AA577" t="s" s="2">
-        <v>1004</v>
-      </c>
       <c r="AB577" t="s" s="2">
         <v>37</v>
       </c>
@@ -65550,7 +65548,7 @@
         <v>37</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>38</v>
@@ -65562,7 +65560,7 @@
         <v>37</v>
       </c>
       <c r="AK577" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="578">
@@ -65570,10 +65568,10 @@
         <v>793</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -65596,13 +65594,13 @@
         <v>45</v>
       </c>
       <c r="L578" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="M578" t="s" s="2">
         <v>1007</v>
       </c>
-      <c r="M578" t="s" s="2">
+      <c r="N578" t="s" s="2">
         <v>1008</v>
-      </c>
-      <c r="N578" t="s" s="2">
-        <v>1009</v>
       </c>
       <c r="O578" s="2"/>
       <c r="P578" s="2"/>
@@ -65653,7 +65651,7 @@
         <v>37</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>38</v>
@@ -65673,10 +65671,10 @@
         <v>793</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
@@ -65776,10 +65774,10 @@
         <v>793</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -65881,10 +65879,10 @@
         <v>793</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -65910,13 +65908,13 @@
         <v>732</v>
       </c>
       <c r="M581" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="N581" t="s" s="2">
         <v>1013</v>
       </c>
-      <c r="N581" t="s" s="2">
+      <c r="O581" t="s" s="2">
         <v>1014</v>
-      </c>
-      <c r="O581" t="s" s="2">
-        <v>1015</v>
       </c>
       <c r="P581" s="2"/>
       <c r="Q581" t="s" s="2">
@@ -65966,16 +65964,16 @@
         <v>37</v>
       </c>
       <c r="AG581" t="s" s="2">
+        <v>1015</v>
+      </c>
+      <c r="AH581" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI581" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ581" t="s" s="2">
         <v>1016</v>
-      </c>
-      <c r="AH581" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI581" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ581" t="s" s="2">
-        <v>1017</v>
       </c>
       <c r="AK581" t="s" s="2">
         <v>56</v>
@@ -65986,10 +65984,10 @@
         <v>793</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" t="s" s="2">
@@ -66015,66 +66013,66 @@
         <v>732</v>
       </c>
       <c r="M582" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="N582" t="s" s="2">
         <v>1019</v>
       </c>
-      <c r="N582" t="s" s="2">
+      <c r="O582" t="s" s="2">
         <v>1020</v>
-      </c>
-      <c r="O582" t="s" s="2">
-        <v>1021</v>
       </c>
       <c r="P582" s="2"/>
       <c r="Q582" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R582" t="s" s="2">
+        <v>1021</v>
+      </c>
+      <c r="S582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG582" t="s" s="2">
         <v>1022</v>
       </c>
-      <c r="S582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG582" t="s" s="2">
-        <v>1023</v>
-      </c>
       <c r="AH582" t="s" s="2">
         <v>38</v>
       </c>
@@ -66082,7 +66080,7 @@
         <v>44</v>
       </c>
       <c r="AJ582" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AK582" t="s" s="2">
         <v>56</v>
@@ -66093,10 +66091,10 @@
         <v>793</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -66122,10 +66120,10 @@
         <v>714</v>
       </c>
       <c r="M583" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="N583" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="N583" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="O583" s="2"/>
       <c r="P583" s="2"/>
@@ -66155,40 +66153,40 @@
         <v>123</v>
       </c>
       <c r="Z583" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="AA583" t="s" s="2">
         <v>1027</v>
       </c>
-      <c r="AA583" t="s" s="2">
+      <c r="AB583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG583" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="AH583" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI583" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK583" t="s" s="2">
         <v>1028</v>
-      </c>
-      <c r="AB583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG583" t="s" s="2">
-        <v>1024</v>
-      </c>
-      <c r="AH583" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI583" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK583" t="s" s="2">
-        <v>1029</v>
       </c>
     </row>
     <row r="584">
@@ -66196,10 +66194,10 @@
         <v>793</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -66225,16 +66223,16 @@
         <v>714</v>
       </c>
       <c r="M584" t="s" s="2">
+        <v>1030</v>
+      </c>
+      <c r="N584" t="s" s="2">
         <v>1031</v>
       </c>
-      <c r="N584" t="s" s="2">
+      <c r="O584" t="s" s="2">
         <v>1032</v>
       </c>
-      <c r="O584" t="s" s="2">
+      <c r="P584" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="P584" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="Q584" t="s" s="2">
         <v>37</v>
@@ -66262,11 +66260,11 @@
         <v>123</v>
       </c>
       <c r="Z584" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="AA584" t="s" s="2">
         <v>1035</v>
       </c>
-      <c r="AA584" t="s" s="2">
-        <v>1036</v>
-      </c>
       <c r="AB584" t="s" s="2">
         <v>37</v>
       </c>
@@ -66283,7 +66281,7 @@
         <v>37</v>
       </c>
       <c r="AG584" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AH584" t="s" s="2">
         <v>38</v>
@@ -66295,7 +66293,7 @@
         <v>37</v>
       </c>
       <c r="AK584" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="585">
@@ -66303,10 +66301,10 @@
         <v>793</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -66332,10 +66330,10 @@
         <v>722</v>
       </c>
       <c r="M585" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="N585" t="s" s="2">
         <v>1038</v>
-      </c>
-      <c r="N585" t="s" s="2">
-        <v>1039</v>
       </c>
       <c r="O585" s="2"/>
       <c r="P585" s="2"/>
@@ -66386,7 +66384,7 @@
         <v>37</v>
       </c>
       <c r="AG585" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AH585" t="s" s="2">
         <v>38</v>
@@ -66406,10 +66404,10 @@
         <v>793</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C586" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" t="s" s="2">
@@ -66509,10 +66507,10 @@
         <v>793</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C587" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" t="s" s="2">
@@ -66614,10 +66612,10 @@
         <v>793</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C588" t="s" s="2">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" t="s" s="2">
@@ -66643,13 +66641,13 @@
         <v>58</v>
       </c>
       <c r="M588" t="s" s="2">
+        <v>1042</v>
+      </c>
+      <c r="N588" t="s" s="2">
         <v>1043</v>
       </c>
-      <c r="N588" t="s" s="2">
+      <c r="O588" t="s" s="2">
         <v>1044</v>
-      </c>
-      <c r="O588" t="s" s="2">
-        <v>1045</v>
       </c>
       <c r="P588" s="2"/>
       <c r="Q588" t="s" s="2">
@@ -66699,16 +66697,16 @@
         <v>37</v>
       </c>
       <c r="AG588" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="AH588" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI588" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ588" t="s" s="2">
         <v>1046</v>
-      </c>
-      <c r="AH588" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI588" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ588" t="s" s="2">
-        <v>1047</v>
       </c>
       <c r="AK588" t="s" s="2">
         <v>56</v>
@@ -66719,10 +66717,10 @@
         <v>793</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C589" t="s" s="2">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" t="s" s="2">
@@ -66748,13 +66746,13 @@
         <v>85</v>
       </c>
       <c r="M589" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="N589" t="s" s="2">
         <v>1049</v>
       </c>
-      <c r="N589" t="s" s="2">
+      <c r="O589" t="s" s="2">
         <v>1050</v>
-      </c>
-      <c r="O589" t="s" s="2">
-        <v>1051</v>
       </c>
       <c r="P589" s="2"/>
       <c r="Q589" t="s" s="2">
@@ -66783,28 +66781,28 @@
         <v>101</v>
       </c>
       <c r="Z589" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="AA589" t="s" s="2">
         <v>1052</v>
       </c>
-      <c r="AA589" t="s" s="2">
+      <c r="AB589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF589" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG589" t="s" s="2">
         <v>1053</v>
-      </c>
-      <c r="AB589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF589" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG589" t="s" s="2">
-        <v>1054</v>
       </c>
       <c r="AH589" t="s" s="2">
         <v>38</v>
@@ -66824,10 +66822,10 @@
         <v>793</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C590" t="s" s="2">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" t="s" s="2">
@@ -66853,13 +66851,13 @@
         <v>128</v>
       </c>
       <c r="M590" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="N590" t="s" s="2">
         <v>1056</v>
       </c>
-      <c r="N590" t="s" s="2">
+      <c r="O590" t="s" s="2">
         <v>1057</v>
-      </c>
-      <c r="O590" t="s" s="2">
-        <v>1058</v>
       </c>
       <c r="P590" s="2"/>
       <c r="Q590" t="s" s="2">
@@ -66909,7 +66907,7 @@
         <v>37</v>
       </c>
       <c r="AG590" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AH590" t="s" s="2">
         <v>38</v>
@@ -66929,10 +66927,10 @@
         <v>793</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C591" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" t="s" s="2">
@@ -66958,13 +66956,13 @@
         <v>58</v>
       </c>
       <c r="M591" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="N591" t="s" s="2">
         <v>1061</v>
       </c>
-      <c r="N591" t="s" s="2">
+      <c r="O591" t="s" s="2">
         <v>1062</v>
-      </c>
-      <c r="O591" t="s" s="2">
-        <v>1063</v>
       </c>
       <c r="P591" s="2"/>
       <c r="Q591" t="s" s="2">
@@ -67014,7 +67012,7 @@
         <v>37</v>
       </c>
       <c r="AG591" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AH591" t="s" s="2">
         <v>38</v>
@@ -67034,10 +67032,10 @@
         <v>793</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C592" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" t="s" s="2">
@@ -67060,16 +67058,16 @@
         <v>37</v>
       </c>
       <c r="L592" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="M592" t="s" s="2">
         <v>1066</v>
       </c>
-      <c r="M592" t="s" s="2">
+      <c r="N592" t="s" s="2">
         <v>1067</v>
       </c>
-      <c r="N592" t="s" s="2">
+      <c r="O592" t="s" s="2">
         <v>1068</v>
-      </c>
-      <c r="O592" t="s" s="2">
-        <v>1069</v>
       </c>
       <c r="P592" s="2"/>
       <c r="Q592" t="s" s="2">
@@ -67119,7 +67117,7 @@
         <v>37</v>
       </c>
       <c r="AG592" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AH592" t="s" s="2">
         <v>38</v>
@@ -67136,7 +67134,7 @@
     </row>
     <row r="593">
       <c r="A593" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B593" t="s" s="2">
         <v>608</v>
@@ -67241,7 +67239,7 @@
     </row>
     <row r="594">
       <c r="A594" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B594" t="s" s="2">
         <v>799</v>
@@ -67346,7 +67344,7 @@
     </row>
     <row r="595">
       <c r="A595" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B595" t="s" s="2">
         <v>800</v>
@@ -67449,7 +67447,7 @@
     </row>
     <row r="596">
       <c r="A596" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B596" t="s" s="2">
         <v>801</v>
@@ -67552,7 +67550,7 @@
     </row>
     <row r="597">
       <c r="A597" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B597" t="s" s="2">
         <v>802</v>
@@ -67657,7 +67655,7 @@
     </row>
     <row r="598">
       <c r="A598" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B598" t="s" s="2">
         <v>803</v>
@@ -67762,7 +67760,7 @@
     </row>
     <row r="599">
       <c r="A599" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B599" t="s" s="2">
         <v>805</v>
@@ -67867,7 +67865,7 @@
     </row>
     <row r="600">
       <c r="A600" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B600" t="s" s="2">
         <v>806</v>
@@ -67972,7 +67970,7 @@
     </row>
     <row r="601">
       <c r="A601" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B601" t="s" s="2">
         <v>807</v>
@@ -68077,7 +68075,7 @@
     </row>
     <row r="602">
       <c r="A602" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B602" t="s" s="2">
         <v>808</v>
@@ -68182,7 +68180,7 @@
     </row>
     <row r="603">
       <c r="A603" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B603" t="s" s="2">
         <v>809</v>
@@ -68287,7 +68285,7 @@
     </row>
     <row r="604">
       <c r="A604" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B604" t="s" s="2">
         <v>810</v>
@@ -68392,7 +68390,7 @@
     </row>
     <row r="605">
       <c r="A605" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B605" t="s" s="2">
         <v>811</v>
@@ -68497,7 +68495,7 @@
     </row>
     <row r="606">
       <c r="A606" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B606" t="s" s="2">
         <v>812</v>
@@ -68602,7 +68600,7 @@
     </row>
     <row r="607">
       <c r="A607" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B607" t="s" s="2">
         <v>813</v>
@@ -68707,7 +68705,7 @@
     </row>
     <row r="608">
       <c r="A608" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B608" t="s" s="2">
         <v>817</v>
@@ -68742,7 +68740,7 @@
         <v>65</v>
       </c>
       <c r="N608" t="s" s="2">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="O608" t="s" s="2">
         <v>67</v>
@@ -68812,7 +68810,7 @@
     </row>
     <row r="609">
       <c r="A609" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B609" t="s" s="2">
         <v>823</v>
@@ -68915,7 +68913,7 @@
     </row>
     <row r="610">
       <c r="A610" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B610" t="s" s="2">
         <v>824</v>
@@ -68950,7 +68948,7 @@
         <v>825</v>
       </c>
       <c r="N610" t="s" s="2">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="O610" t="s" s="2">
         <v>826</v>
@@ -69022,7 +69020,7 @@
     </row>
     <row r="611">
       <c r="A611" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B611" t="s" s="2">
         <v>828</v>
@@ -69125,7 +69123,7 @@
     </row>
     <row r="612">
       <c r="A612" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B612" t="s" s="2">
         <v>833</v>
@@ -69174,7 +69172,7 @@
         <v>37</v>
       </c>
       <c r="T612" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="U612" t="s" s="2">
         <v>37</v>
@@ -69192,10 +69190,10 @@
         <v>137</v>
       </c>
       <c r="Z612" t="s" s="2">
+        <v>1078</v>
+      </c>
+      <c r="AA612" t="s" s="2">
         <v>1079</v>
-      </c>
-      <c r="AA612" t="s" s="2">
-        <v>1080</v>
       </c>
       <c r="AB612" t="s" s="2">
         <v>37</v>
@@ -69230,7 +69228,7 @@
     </row>
     <row r="613">
       <c r="A613" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B613" t="s" s="2">
         <v>838</v>
@@ -69335,7 +69333,7 @@
     </row>
     <row r="614">
       <c r="A614" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B614" t="s" s="2">
         <v>844</v>
@@ -69367,7 +69365,7 @@
         <v>714</v>
       </c>
       <c r="M614" t="s" s="2">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="N614" t="s" s="2">
         <v>845</v>
@@ -69402,10 +69400,10 @@
         <v>123</v>
       </c>
       <c r="Z614" t="s" s="2">
+        <v>1081</v>
+      </c>
+      <c r="AA614" t="s" s="2">
         <v>848</v>
-      </c>
-      <c r="AA614" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="AB614" t="s" s="2">
         <v>37</v>
@@ -69435,22 +69433,22 @@
         <v>37</v>
       </c>
       <c r="AK614" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C615" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D615" s="2"/>
       <c r="E615" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F615" s="2"/>
       <c r="G615" t="s" s="2">
@@ -69472,13 +69470,13 @@
         <v>714</v>
       </c>
       <c r="M615" t="s" s="2">
+        <v>852</v>
+      </c>
+      <c r="N615" t="s" s="2">
         <v>853</v>
       </c>
-      <c r="N615" t="s" s="2">
+      <c r="O615" t="s" s="2">
         <v>854</v>
-      </c>
-      <c r="O615" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="P615" s="2"/>
       <c r="Q615" t="s" s="2">
@@ -69507,11 +69505,11 @@
         <v>123</v>
       </c>
       <c r="Z615" t="s" s="2">
+        <v>855</v>
+      </c>
+      <c r="AA615" t="s" s="2">
         <v>856</v>
       </c>
-      <c r="AA615" t="s" s="2">
-        <v>857</v>
-      </c>
       <c r="AB615" t="s" s="2">
         <v>37</v>
       </c>
@@ -69528,7 +69526,7 @@
         <v>37</v>
       </c>
       <c r="AG615" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AH615" t="s" s="2">
         <v>38</v>
@@ -69540,18 +69538,18 @@
         <v>37</v>
       </c>
       <c r="AK615" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C616" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D616" s="2"/>
       <c r="E616" t="s" s="2">
@@ -69574,13 +69572,13 @@
         <v>45</v>
       </c>
       <c r="L616" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M616" t="s" s="2">
         <v>1082</v>
       </c>
       <c r="N616" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O616" s="2"/>
       <c r="P616" s="2"/>
@@ -69631,7 +69629,7 @@
         <v>37</v>
       </c>
       <c r="AG616" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AH616" t="s" s="2">
         <v>38</v>
@@ -69648,17 +69646,17 @@
     </row>
     <row r="617">
       <c r="A617" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F617" s="2"/>
       <c r="G617" t="s" s="2">
@@ -69680,13 +69678,13 @@
         <v>79</v>
       </c>
       <c r="M617" t="s" s="2">
+        <v>865</v>
+      </c>
+      <c r="N617" t="s" s="2">
         <v>866</v>
       </c>
-      <c r="N617" t="s" s="2">
+      <c r="O617" t="s" s="2">
         <v>867</v>
-      </c>
-      <c r="O617" t="s" s="2">
-        <v>868</v>
       </c>
       <c r="P617" s="2"/>
       <c r="Q617" t="s" s="2">
@@ -69736,7 +69734,7 @@
         <v>37</v>
       </c>
       <c r="AG617" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AH617" t="s" s="2">
         <v>38</v>
@@ -69753,13 +69751,13 @@
     </row>
     <row r="618">
       <c r="A618" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -69785,13 +69783,13 @@
         <v>1083</v>
       </c>
       <c r="M618" t="s" s="2">
+        <v>870</v>
+      </c>
+      <c r="N618" t="s" s="2">
         <v>871</v>
       </c>
-      <c r="N618" t="s" s="2">
+      <c r="O618" t="s" s="2">
         <v>872</v>
-      </c>
-      <c r="O618" t="s" s="2">
-        <v>873</v>
       </c>
       <c r="P618" s="2"/>
       <c r="Q618" t="s" s="2">
@@ -69841,7 +69839,7 @@
         <v>37</v>
       </c>
       <c r="AG618" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>38</v>
@@ -69853,18 +69851,18 @@
         <v>37</v>
       </c>
       <c r="AK618" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -69893,10 +69891,10 @@
         <v>1084</v>
       </c>
       <c r="N619" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="O619" t="s" s="2">
         <v>878</v>
-      </c>
-      <c r="O619" t="s" s="2">
-        <v>879</v>
       </c>
       <c r="P619" s="2"/>
       <c r="Q619" t="s" s="2">
@@ -69946,7 +69944,7 @@
         <v>37</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>38</v>
@@ -69958,18 +69956,18 @@
         <v>37</v>
       </c>
       <c r="AK619" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -69992,16 +69990,16 @@
         <v>37</v>
       </c>
       <c r="L620" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="M620" t="s" s="2">
         <v>882</v>
       </c>
-      <c r="M620" t="s" s="2">
+      <c r="N620" t="s" s="2">
         <v>883</v>
       </c>
-      <c r="N620" t="s" s="2">
+      <c r="O620" t="s" s="2">
         <v>884</v>
-      </c>
-      <c r="O620" t="s" s="2">
-        <v>885</v>
       </c>
       <c r="P620" s="2"/>
       <c r="Q620" t="s" s="2">
@@ -70051,7 +70049,7 @@
         <v>37</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>38</v>
@@ -70068,13 +70066,13 @@
     </row>
     <row r="621">
       <c r="A621" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -70106,7 +70104,7 @@
         <v>1086</v>
       </c>
       <c r="O621" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="P621" s="2"/>
       <c r="Q621" t="s" s="2">
@@ -70156,7 +70154,7 @@
         <v>37</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AH621" t="s" s="2">
         <v>38</v>
@@ -70173,13 +70171,13 @@
     </row>
     <row r="622">
       <c r="A622" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -70276,13 +70274,13 @@
     </row>
     <row r="623">
       <c r="A623" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -70381,13 +70379,13 @@
     </row>
     <row r="624">
       <c r="A624" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -70488,13 +70486,13 @@
     </row>
     <row r="625">
       <c r="A625" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -70523,10 +70521,10 @@
         <v>1087</v>
       </c>
       <c r="N625" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="O625" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="O625" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="P625" s="2"/>
       <c r="Q625" t="s" s="2">
@@ -70555,11 +70553,11 @@
         <v>137</v>
       </c>
       <c r="Z625" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="AA625" t="s" s="2">
         <v>898</v>
       </c>
-      <c r="AA625" t="s" s="2">
-        <v>899</v>
-      </c>
       <c r="AB625" t="s" s="2">
         <v>37</v>
       </c>
@@ -70576,7 +70574,7 @@
         <v>37</v>
       </c>
       <c r="AG625" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AH625" t="s" s="2">
         <v>44</v>
@@ -70593,13 +70591,13 @@
     </row>
     <row r="626">
       <c r="A626" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -70622,13 +70620,13 @@
         <v>45</v>
       </c>
       <c r="L626" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M626" t="s" s="2">
         <v>1088</v>
       </c>
       <c r="N626" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="O626" s="2"/>
       <c r="P626" s="2"/>
@@ -70679,7 +70677,7 @@
         <v>37</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>44</v>
@@ -70696,13 +70694,13 @@
     </row>
     <row r="627">
       <c r="A627" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -70728,16 +70726,16 @@
         <v>58</v>
       </c>
       <c r="M627" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="N627" t="s" s="2">
         <v>906</v>
       </c>
-      <c r="N627" t="s" s="2">
+      <c r="O627" t="s" s="2">
         <v>907</v>
       </c>
-      <c r="O627" t="s" s="2">
+      <c r="P627" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="P627" t="s" s="2">
-        <v>909</v>
       </c>
       <c r="Q627" t="s" s="2">
         <v>37</v>
@@ -70786,7 +70784,7 @@
         <v>37</v>
       </c>
       <c r="AG627" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AH627" t="s" s="2">
         <v>38</v>
@@ -70803,13 +70801,13 @@
     </row>
     <row r="628">
       <c r="A628" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -70835,16 +70833,16 @@
         <v>714</v>
       </c>
       <c r="M628" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="N628" t="s" s="2">
         <v>911</v>
       </c>
-      <c r="N628" t="s" s="2">
+      <c r="O628" t="s" s="2">
         <v>912</v>
       </c>
-      <c r="O628" t="s" s="2">
+      <c r="P628" t="s" s="2">
         <v>913</v>
-      </c>
-      <c r="P628" t="s" s="2">
-        <v>914</v>
       </c>
       <c r="Q628" t="s" s="2">
         <v>37</v>
@@ -70893,7 +70891,7 @@
         <v>37</v>
       </c>
       <c r="AG628" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AH628" t="s" s="2">
         <v>38</v>
@@ -70905,18 +70903,18 @@
         <v>37</v>
       </c>
       <c r="AK628" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -70945,7 +70943,7 @@
         <v>1089</v>
       </c>
       <c r="N629" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="O629" s="2"/>
       <c r="P629" s="2"/>
@@ -70996,7 +70994,7 @@
         <v>37</v>
       </c>
       <c r="AG629" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AH629" t="s" s="2">
         <v>44</v>
@@ -71013,13 +71011,13 @@
     </row>
     <row r="630">
       <c r="A630" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -71116,13 +71114,13 @@
     </row>
     <row r="631">
       <c r="A631" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -71221,13 +71219,13 @@
     </row>
     <row r="632">
       <c r="A632" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -71328,13 +71326,13 @@
     </row>
     <row r="633">
       <c r="A633" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -71357,13 +71355,13 @@
         <v>45</v>
       </c>
       <c r="L633" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="M633" t="s" s="2">
         <v>923</v>
       </c>
-      <c r="M633" t="s" s="2">
+      <c r="N633" t="s" s="2">
         <v>924</v>
-      </c>
-      <c r="N633" t="s" s="2">
-        <v>925</v>
       </c>
       <c r="O633" s="2"/>
       <c r="P633" s="2"/>
@@ -71414,7 +71412,7 @@
         <v>37</v>
       </c>
       <c r="AG633" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AH633" t="s" s="2">
         <v>44</v>
@@ -71431,13 +71429,13 @@
     </row>
     <row r="634">
       <c r="A634" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -71534,13 +71532,13 @@
     </row>
     <row r="635">
       <c r="A635" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -71639,13 +71637,13 @@
     </row>
     <row r="636">
       <c r="A636" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -71671,14 +71669,14 @@
         <v>119</v>
       </c>
       <c r="M636" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="N636" t="s" s="2">
         <v>929</v>
-      </c>
-      <c r="N636" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="O636" s="2"/>
       <c r="P636" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="Q636" t="s" s="2">
         <v>37</v>
@@ -71691,7 +71689,7 @@
         <v>37</v>
       </c>
       <c r="U636" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="V636" t="s" s="2">
         <v>37</v>
@@ -71706,28 +71704,28 @@
         <v>137</v>
       </c>
       <c r="Z636" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="AA636" t="s" s="2">
         <v>933</v>
       </c>
-      <c r="AA636" t="s" s="2">
+      <c r="AB636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG636" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="AB636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG636" t="s" s="2">
-        <v>935</v>
       </c>
       <c r="AH636" t="s" s="2">
         <v>38</v>
@@ -71744,13 +71742,13 @@
     </row>
     <row r="637">
       <c r="A637" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -71776,14 +71774,14 @@
         <v>119</v>
       </c>
       <c r="M637" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="N637" t="s" s="2">
         <v>937</v>
-      </c>
-      <c r="N637" t="s" s="2">
-        <v>938</v>
       </c>
       <c r="O637" s="2"/>
       <c r="P637" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="Q637" t="s" s="2">
         <v>37</v>
@@ -71796,7 +71794,7 @@
         <v>37</v>
       </c>
       <c r="U637" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="V637" t="s" s="2">
         <v>37</v>
@@ -71832,7 +71830,7 @@
         <v>37</v>
       </c>
       <c r="AG637" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AH637" t="s" s="2">
         <v>38</v>
@@ -71849,13 +71847,13 @@
     </row>
     <row r="638">
       <c r="A638" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -71878,19 +71876,19 @@
         <v>37</v>
       </c>
       <c r="L638" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M638" t="s" s="2">
         <v>1090</v>
       </c>
       <c r="N638" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="O638" t="s" s="2">
         <v>945</v>
       </c>
-      <c r="O638" t="s" s="2">
+      <c r="P638" t="s" s="2">
         <v>946</v>
-      </c>
-      <c r="P638" t="s" s="2">
-        <v>947</v>
       </c>
       <c r="Q638" t="s" s="2">
         <v>37</v>
@@ -71939,7 +71937,7 @@
         <v>37</v>
       </c>
       <c r="AG638" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AH638" t="s" s="2">
         <v>38</v>
@@ -71956,13 +71954,13 @@
     </row>
     <row r="639">
       <c r="A639" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -71985,19 +71983,19 @@
         <v>45</v>
       </c>
       <c r="L639" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="M639" t="s" s="2">
         <v>1091</v>
       </c>
       <c r="N639" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="O639" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="O639" t="s" s="2">
+      <c r="P639" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="P639" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="Q639" t="s" s="2">
         <v>37</v>
@@ -72010,43 +72008,43 @@
         <v>37</v>
       </c>
       <c r="U639" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="V639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG639" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="V639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG639" t="s" s="2">
-        <v>956</v>
       </c>
       <c r="AH639" t="s" s="2">
         <v>38</v>
@@ -72063,13 +72061,13 @@
     </row>
     <row r="640">
       <c r="A640" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -72095,16 +72093,16 @@
         <v>145</v>
       </c>
       <c r="M640" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="N640" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="N640" t="s" s="2">
+      <c r="O640" t="s" s="2">
         <v>960</v>
       </c>
-      <c r="O640" t="s" s="2">
+      <c r="P640" t="s" s="2">
         <v>961</v>
-      </c>
-      <c r="P640" t="s" s="2">
-        <v>962</v>
       </c>
       <c r="Q640" t="s" s="2">
         <v>37</v>
@@ -72153,7 +72151,7 @@
         <v>37</v>
       </c>
       <c r="AG640" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AH640" t="s" s="2">
         <v>38</v>
@@ -72170,13 +72168,13 @@
     </row>
     <row r="641">
       <c r="A641" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -72199,19 +72197,19 @@
         <v>45</v>
       </c>
       <c r="L641" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="M641" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="N641" t="s" s="2">
         <v>965</v>
       </c>
-      <c r="N641" t="s" s="2">
+      <c r="O641" t="s" s="2">
         <v>966</v>
       </c>
-      <c r="O641" t="s" s="2">
+      <c r="P641" t="s" s="2">
         <v>967</v>
-      </c>
-      <c r="P641" t="s" s="2">
-        <v>968</v>
       </c>
       <c r="Q641" t="s" s="2">
         <v>37</v>
@@ -72260,7 +72258,7 @@
         <v>37</v>
       </c>
       <c r="AG641" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AH641" t="s" s="2">
         <v>38</v>
@@ -72277,13 +72275,13 @@
     </row>
     <row r="642">
       <c r="A642" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -72309,14 +72307,14 @@
         <v>58</v>
       </c>
       <c r="M642" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="N642" t="s" s="2">
         <v>971</v>
-      </c>
-      <c r="N642" t="s" s="2">
-        <v>972</v>
       </c>
       <c r="O642" s="2"/>
       <c r="P642" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="Q642" t="s" s="2">
         <v>37</v>
@@ -72329,43 +72327,43 @@
         <v>37</v>
       </c>
       <c r="U642" t="s" s="2">
+        <v>973</v>
+      </c>
+      <c r="V642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG642" t="s" s="2">
         <v>974</v>
-      </c>
-      <c r="V642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG642" t="s" s="2">
-        <v>975</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>38</v>
@@ -72382,13 +72380,13 @@
     </row>
     <row r="643">
       <c r="A643" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -72417,11 +72415,11 @@
         <v>1092</v>
       </c>
       <c r="N643" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O643" s="2"/>
       <c r="P643" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Q643" t="s" s="2">
         <v>37</v>
@@ -72470,7 +72468,7 @@
         <v>37</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>38</v>
@@ -72487,13 +72485,13 @@
     </row>
     <row r="644">
       <c r="A644" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -72519,13 +72517,13 @@
         <v>97</v>
       </c>
       <c r="M644" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="N644" t="s" s="2">
         <v>982</v>
       </c>
-      <c r="N644" t="s" s="2">
+      <c r="O644" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="O644" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="P644" s="2"/>
       <c r="Q644" t="s" s="2">
@@ -72554,51 +72552,51 @@
         <v>123</v>
       </c>
       <c r="Z644" t="s" s="2">
+        <v>984</v>
+      </c>
+      <c r="AA644" t="s" s="2">
         <v>985</v>
       </c>
-      <c r="AA644" t="s" s="2">
+      <c r="AB644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG644" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="AH644" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI644" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK644" t="s" s="2">
         <v>986</v>
-      </c>
-      <c r="AB644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG644" t="s" s="2">
-        <v>981</v>
-      </c>
-      <c r="AH644" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI644" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK644" t="s" s="2">
-        <v>987</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -72624,13 +72622,13 @@
         <v>151</v>
       </c>
       <c r="M645" t="s" s="2">
+        <v>988</v>
+      </c>
+      <c r="N645" t="s" s="2">
         <v>989</v>
       </c>
-      <c r="N645" t="s" s="2">
+      <c r="O645" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="O645" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="P645" s="2"/>
       <c r="Q645" t="s" s="2">
@@ -72680,7 +72678,7 @@
         <v>37</v>
       </c>
       <c r="AG645" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AH645" t="s" s="2">
         <v>38</v>
@@ -72697,13 +72695,13 @@
     </row>
     <row r="646">
       <c r="A646" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
@@ -72800,13 +72798,13 @@
     </row>
     <row r="647">
       <c r="A647" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -72905,13 +72903,13 @@
     </row>
     <row r="648">
       <c r="A648" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -73012,13 +73010,13 @@
     </row>
     <row r="649">
       <c r="A649" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -73041,13 +73039,13 @@
         <v>37</v>
       </c>
       <c r="L649" t="s" s="2">
+        <v>995</v>
+      </c>
+      <c r="M649" t="s" s="2">
         <v>996</v>
       </c>
-      <c r="M649" t="s" s="2">
+      <c r="N649" t="s" s="2">
         <v>997</v>
-      </c>
-      <c r="N649" t="s" s="2">
-        <v>998</v>
       </c>
       <c r="O649" s="2"/>
       <c r="P649" s="2"/>
@@ -73098,7 +73096,7 @@
         <v>37</v>
       </c>
       <c r="AG649" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AH649" t="s" s="2">
         <v>38</v>
@@ -73115,13 +73113,13 @@
     </row>
     <row r="650">
       <c r="A650" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -73147,13 +73145,13 @@
         <v>714</v>
       </c>
       <c r="M650" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="N650" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="N650" t="s" s="2">
+      <c r="O650" t="s" s="2">
         <v>1001</v>
-      </c>
-      <c r="O650" t="s" s="2">
-        <v>1002</v>
       </c>
       <c r="P650" s="2"/>
       <c r="Q650" t="s" s="2">
@@ -73182,11 +73180,11 @@
         <v>109</v>
       </c>
       <c r="Z650" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="AA650" t="s" s="2">
         <v>1003</v>
       </c>
-      <c r="AA650" t="s" s="2">
-        <v>1004</v>
-      </c>
       <c r="AB650" t="s" s="2">
         <v>37</v>
       </c>
@@ -73203,7 +73201,7 @@
         <v>37</v>
       </c>
       <c r="AG650" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AH650" t="s" s="2">
         <v>38</v>
@@ -73215,18 +73213,18 @@
         <v>37</v>
       </c>
       <c r="AK650" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -73249,13 +73247,13 @@
         <v>45</v>
       </c>
       <c r="L651" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="M651" t="s" s="2">
         <v>1007</v>
       </c>
-      <c r="M651" t="s" s="2">
+      <c r="N651" t="s" s="2">
         <v>1008</v>
-      </c>
-      <c r="N651" t="s" s="2">
-        <v>1009</v>
       </c>
       <c r="O651" s="2"/>
       <c r="P651" s="2"/>
@@ -73306,7 +73304,7 @@
         <v>37</v>
       </c>
       <c r="AG651" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AH651" t="s" s="2">
         <v>38</v>
@@ -73323,13 +73321,13 @@
     </row>
     <row r="652">
       <c r="A652" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -73355,10 +73353,10 @@
         <v>714</v>
       </c>
       <c r="M652" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="N652" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="N652" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="O652" s="2"/>
       <c r="P652" s="2"/>
@@ -73388,11 +73386,11 @@
         <v>123</v>
       </c>
       <c r="Z652" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="AA652" t="s" s="2">
         <v>1027</v>
       </c>
-      <c r="AA652" t="s" s="2">
-        <v>1028</v>
-      </c>
       <c r="AB652" t="s" s="2">
         <v>37</v>
       </c>
@@ -73409,7 +73407,7 @@
         <v>37</v>
       </c>
       <c r="AG652" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AH652" t="s" s="2">
         <v>38</v>
@@ -73426,13 +73424,13 @@
     </row>
     <row r="653">
       <c r="A653" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -73458,16 +73456,16 @@
         <v>714</v>
       </c>
       <c r="M653" t="s" s="2">
+        <v>1030</v>
+      </c>
+      <c r="N653" t="s" s="2">
         <v>1031</v>
       </c>
-      <c r="N653" t="s" s="2">
+      <c r="O653" t="s" s="2">
         <v>1032</v>
       </c>
-      <c r="O653" t="s" s="2">
+      <c r="P653" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="P653" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="Q653" t="s" s="2">
         <v>37</v>
@@ -73495,11 +73493,11 @@
         <v>123</v>
       </c>
       <c r="Z653" t="s" s="2">
+        <v>1034</v>
+      </c>
+      <c r="AA653" t="s" s="2">
         <v>1035</v>
       </c>
-      <c r="AA653" t="s" s="2">
-        <v>1036</v>
-      </c>
       <c r="AB653" t="s" s="2">
         <v>37</v>
       </c>
@@ -73516,7 +73514,7 @@
         <v>37</v>
       </c>
       <c r="AG653" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AH653" t="s" s="2">
         <v>38</v>
@@ -73533,13 +73531,13 @@
     </row>
     <row r="654">
       <c r="A654" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
@@ -73565,10 +73563,10 @@
         <v>722</v>
       </c>
       <c r="M654" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="N654" t="s" s="2">
         <v>1038</v>
-      </c>
-      <c r="N654" t="s" s="2">
-        <v>1039</v>
       </c>
       <c r="O654" s="2"/>
       <c r="P654" s="2"/>
@@ -73619,7 +73617,7 @@
         <v>37</v>
       </c>
       <c r="AG654" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AH654" t="s" s="2">
         <v>38</v>
@@ -73636,13 +73634,13 @@
     </row>
     <row r="655">
       <c r="A655" t="s" s="2">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C655" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D655" s="2"/>
       <c r="E655" t="s" s="2">
@@ -73665,16 +73663,16 @@
         <v>37</v>
       </c>
       <c r="L655" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="M655" t="s" s="2">
         <v>1066</v>
       </c>
-      <c r="M655" t="s" s="2">
+      <c r="N655" t="s" s="2">
         <v>1067</v>
       </c>
-      <c r="N655" t="s" s="2">
+      <c r="O655" t="s" s="2">
         <v>1068</v>
-      </c>
-      <c r="O655" t="s" s="2">
-        <v>1069</v>
       </c>
       <c r="P655" s="2"/>
       <c r="Q655" t="s" s="2">
@@ -73724,7 +73722,7 @@
         <v>37</v>
       </c>
       <c r="AG655" t="s" s="2">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="AH655" t="s" s="2">
         <v>38</v>
@@ -77326,7 +77324,7 @@
         <v>37</v>
       </c>
       <c r="T690" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="U690" t="s" s="2">
         <v>37</v>
@@ -77728,10 +77726,10 @@
         <v>45</v>
       </c>
       <c r="L694" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M694" t="s" s="2">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="N694" t="s" s="2">
         <v>724</v>
@@ -78045,7 +78043,7 @@
         <v>45</v>
       </c>
       <c r="L697" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M697" t="s" s="2">
         <v>1145</v>
@@ -78985,13 +78983,13 @@
         <v>58</v>
       </c>
       <c r="M706" t="s" s="2">
+        <v>1042</v>
+      </c>
+      <c r="N706" t="s" s="2">
         <v>1043</v>
       </c>
-      <c r="N706" t="s" s="2">
+      <c r="O706" t="s" s="2">
         <v>1044</v>
-      </c>
-      <c r="O706" t="s" s="2">
-        <v>1045</v>
       </c>
       <c r="P706" s="2"/>
       <c r="Q706" t="s" s="2">
@@ -79041,16 +79039,16 @@
         <v>37</v>
       </c>
       <c r="AG706" t="s" s="2">
+        <v>1045</v>
+      </c>
+      <c r="AH706" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI706" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ706" t="s" s="2">
         <v>1046</v>
-      </c>
-      <c r="AH706" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI706" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ706" t="s" s="2">
-        <v>1047</v>
       </c>
       <c r="AK706" t="s" s="2">
         <v>56</v>
@@ -79090,13 +79088,13 @@
         <v>85</v>
       </c>
       <c r="M707" t="s" s="2">
+        <v>1048</v>
+      </c>
+      <c r="N707" t="s" s="2">
         <v>1049</v>
       </c>
-      <c r="N707" t="s" s="2">
+      <c r="O707" t="s" s="2">
         <v>1050</v>
-      </c>
-      <c r="O707" t="s" s="2">
-        <v>1051</v>
       </c>
       <c r="P707" s="2"/>
       <c r="Q707" t="s" s="2">
@@ -79125,28 +79123,28 @@
         <v>101</v>
       </c>
       <c r="Z707" t="s" s="2">
+        <v>1051</v>
+      </c>
+      <c r="AA707" t="s" s="2">
         <v>1052</v>
       </c>
-      <c r="AA707" t="s" s="2">
+      <c r="AB707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF707" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG707" t="s" s="2">
         <v>1053</v>
-      </c>
-      <c r="AB707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF707" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG707" t="s" s="2">
-        <v>1054</v>
       </c>
       <c r="AH707" t="s" s="2">
         <v>38</v>
@@ -79195,13 +79193,13 @@
         <v>128</v>
       </c>
       <c r="M708" t="s" s="2">
+        <v>1055</v>
+      </c>
+      <c r="N708" t="s" s="2">
         <v>1056</v>
       </c>
-      <c r="N708" t="s" s="2">
+      <c r="O708" t="s" s="2">
         <v>1057</v>
-      </c>
-      <c r="O708" t="s" s="2">
-        <v>1058</v>
       </c>
       <c r="P708" s="2"/>
       <c r="Q708" t="s" s="2">
@@ -79251,7 +79249,7 @@
         <v>37</v>
       </c>
       <c r="AG708" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AH708" t="s" s="2">
         <v>38</v>
@@ -79300,13 +79298,13 @@
         <v>58</v>
       </c>
       <c r="M709" t="s" s="2">
+        <v>1060</v>
+      </c>
+      <c r="N709" t="s" s="2">
         <v>1061</v>
       </c>
-      <c r="N709" t="s" s="2">
+      <c r="O709" t="s" s="2">
         <v>1062</v>
-      </c>
-      <c r="O709" t="s" s="2">
-        <v>1063</v>
       </c>
       <c r="P709" s="2"/>
       <c r="Q709" t="s" s="2">
@@ -79356,7 +79354,7 @@
         <v>37</v>
       </c>
       <c r="AG709" t="s" s="2">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AH709" t="s" s="2">
         <v>38</v>

--- a/ig/nr-change-contained/all-profiles.xlsx
+++ b/ig/nr-change-contained/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:15:17+00:00</t>
+    <t>2023-07-12T08:17:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2265,7 +2265,7 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
 </t>
   </si>
   <si>
@@ -2699,10 +2699,6 @@
   </si>
   <si>
     <t>DocumentReference.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
-</t>
   </si>
   <si>
     <t>Référence vers le patient concerné par le document.</t>
@@ -3279,6 +3275,10 @@
   </si>
   <si>
     <t>DocumentReference.context.sourcePatientInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+</t>
   </si>
   <si>
     <t>Référence vers la ressource Patient titulaire du dossier.</t>
@@ -61919,13 +61919,13 @@
         <v>45</v>
       </c>
       <c r="L543" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="M543" t="s" s="2">
         <v>859</v>
       </c>
-      <c r="M543" t="s" s="2">
+      <c r="N543" t="s" s="2">
         <v>860</v>
-      </c>
-      <c r="N543" t="s" s="2">
-        <v>861</v>
       </c>
       <c r="O543" s="2"/>
       <c r="P543" s="2"/>
@@ -61988,7 +61988,7 @@
         <v>37</v>
       </c>
       <c r="AK543" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="544">
@@ -61996,14 +61996,14 @@
         <v>793</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C544" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F544" s="2"/>
       <c r="G544" t="s" s="2">
@@ -62025,13 +62025,13 @@
         <v>79</v>
       </c>
       <c r="M544" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="N544" t="s" s="2">
         <v>865</v>
       </c>
-      <c r="N544" t="s" s="2">
+      <c r="O544" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="O544" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="P544" s="2"/>
       <c r="Q544" t="s" s="2">
@@ -62081,7 +62081,7 @@
         <v>37</v>
       </c>
       <c r="AG544" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AH544" t="s" s="2">
         <v>38</v>
@@ -62101,10 +62101,10 @@
         <v>793</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C545" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" t="s" s="2">
@@ -62127,16 +62127,16 @@
         <v>45</v>
       </c>
       <c r="L545" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="M545" t="s" s="2">
         <v>869</v>
       </c>
-      <c r="M545" t="s" s="2">
+      <c r="N545" t="s" s="2">
         <v>870</v>
       </c>
-      <c r="N545" t="s" s="2">
+      <c r="O545" t="s" s="2">
         <v>871</v>
-      </c>
-      <c r="O545" t="s" s="2">
-        <v>872</v>
       </c>
       <c r="P545" s="2"/>
       <c r="Q545" t="s" s="2">
@@ -62186,7 +62186,7 @@
         <v>37</v>
       </c>
       <c r="AG545" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AH545" t="s" s="2">
         <v>38</v>
@@ -62198,7 +62198,7 @@
         <v>37</v>
       </c>
       <c r="AK545" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="546">
@@ -62206,10 +62206,10 @@
         <v>793</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C546" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" t="s" s="2">
@@ -62232,16 +62232,16 @@
         <v>37</v>
       </c>
       <c r="L546" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="M546" t="s" s="2">
         <v>875</v>
       </c>
-      <c r="M546" t="s" s="2">
+      <c r="N546" t="s" s="2">
         <v>876</v>
       </c>
-      <c r="N546" t="s" s="2">
+      <c r="O546" t="s" s="2">
         <v>877</v>
-      </c>
-      <c r="O546" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="P546" s="2"/>
       <c r="Q546" t="s" s="2">
@@ -62291,7 +62291,7 @@
         <v>37</v>
       </c>
       <c r="AG546" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AH546" t="s" s="2">
         <v>38</v>
@@ -62303,7 +62303,7 @@
         <v>37</v>
       </c>
       <c r="AK546" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="547">
@@ -62311,10 +62311,10 @@
         <v>793</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C547" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" t="s" s="2">
@@ -62337,16 +62337,16 @@
         <v>37</v>
       </c>
       <c r="L547" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="M547" t="s" s="2">
         <v>881</v>
       </c>
-      <c r="M547" t="s" s="2">
+      <c r="N547" t="s" s="2">
         <v>882</v>
       </c>
-      <c r="N547" t="s" s="2">
+      <c r="O547" t="s" s="2">
         <v>883</v>
-      </c>
-      <c r="O547" t="s" s="2">
-        <v>884</v>
       </c>
       <c r="P547" s="2"/>
       <c r="Q547" t="s" s="2">
@@ -62396,7 +62396,7 @@
         <v>37</v>
       </c>
       <c r="AG547" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AH547" t="s" s="2">
         <v>38</v>
@@ -62416,10 +62416,10 @@
         <v>793</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C548" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" t="s" s="2">
@@ -62445,13 +62445,13 @@
         <v>151</v>
       </c>
       <c r="M548" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="N548" t="s" s="2">
         <v>886</v>
       </c>
-      <c r="N548" t="s" s="2">
+      <c r="O548" t="s" s="2">
         <v>887</v>
-      </c>
-      <c r="O548" t="s" s="2">
-        <v>888</v>
       </c>
       <c r="P548" s="2"/>
       <c r="Q548" t="s" s="2">
@@ -62501,7 +62501,7 @@
         <v>37</v>
       </c>
       <c r="AG548" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AH548" t="s" s="2">
         <v>38</v>
@@ -62513,7 +62513,7 @@
         <v>37</v>
       </c>
       <c r="AK548" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="549">
@@ -62521,10 +62521,10 @@
         <v>793</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C549" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" t="s" s="2">
@@ -62624,10 +62624,10 @@
         <v>793</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C550" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" t="s" s="2">
@@ -62729,10 +62729,10 @@
         <v>793</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C551" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" t="s" s="2">
@@ -62836,10 +62836,10 @@
         <v>793</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C552" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" t="s" s="2">
@@ -62865,13 +62865,13 @@
         <v>119</v>
       </c>
       <c r="M552" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="N552" t="s" s="2">
         <v>894</v>
       </c>
-      <c r="N552" t="s" s="2">
+      <c r="O552" t="s" s="2">
         <v>895</v>
-      </c>
-      <c r="O552" t="s" s="2">
-        <v>896</v>
       </c>
       <c r="P552" s="2"/>
       <c r="Q552" t="s" s="2">
@@ -62900,11 +62900,11 @@
         <v>137</v>
       </c>
       <c r="Z552" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="AA552" t="s" s="2">
         <v>897</v>
       </c>
-      <c r="AA552" t="s" s="2">
-        <v>898</v>
-      </c>
       <c r="AB552" t="s" s="2">
         <v>37</v>
       </c>
@@ -62921,7 +62921,7 @@
         <v>37</v>
       </c>
       <c r="AG552" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AH552" t="s" s="2">
         <v>44</v>
@@ -62941,10 +62941,10 @@
         <v>793</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C553" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" t="s" s="2">
@@ -62967,13 +62967,13 @@
         <v>45</v>
       </c>
       <c r="L553" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="M553" t="s" s="2">
         <v>900</v>
       </c>
-      <c r="M553" t="s" s="2">
+      <c r="N553" t="s" s="2">
         <v>901</v>
-      </c>
-      <c r="N553" t="s" s="2">
-        <v>902</v>
       </c>
       <c r="O553" s="2"/>
       <c r="P553" s="2"/>
@@ -63024,7 +63024,7 @@
         <v>37</v>
       </c>
       <c r="AG553" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AH553" t="s" s="2">
         <v>44</v>
@@ -63036,7 +63036,7 @@
         <v>37</v>
       </c>
       <c r="AK553" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="554">
@@ -63044,10 +63044,10 @@
         <v>793</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C554" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" t="s" s="2">
@@ -63073,16 +63073,16 @@
         <v>58</v>
       </c>
       <c r="M554" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="N554" t="s" s="2">
         <v>905</v>
       </c>
-      <c r="N554" t="s" s="2">
+      <c r="O554" t="s" s="2">
         <v>906</v>
       </c>
-      <c r="O554" t="s" s="2">
+      <c r="P554" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="P554" t="s" s="2">
-        <v>908</v>
       </c>
       <c r="Q554" t="s" s="2">
         <v>37</v>
@@ -63131,7 +63131,7 @@
         <v>37</v>
       </c>
       <c r="AG554" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AH554" t="s" s="2">
         <v>38</v>
@@ -63151,10 +63151,10 @@
         <v>793</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C555" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" t="s" s="2">
@@ -63180,16 +63180,16 @@
         <v>714</v>
       </c>
       <c r="M555" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="N555" t="s" s="2">
         <v>910</v>
       </c>
-      <c r="N555" t="s" s="2">
+      <c r="O555" t="s" s="2">
         <v>911</v>
       </c>
-      <c r="O555" t="s" s="2">
+      <c r="P555" t="s" s="2">
         <v>912</v>
-      </c>
-      <c r="P555" t="s" s="2">
-        <v>913</v>
       </c>
       <c r="Q555" t="s" s="2">
         <v>37</v>
@@ -63238,7 +63238,7 @@
         <v>37</v>
       </c>
       <c r="AG555" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AH555" t="s" s="2">
         <v>38</v>
@@ -63250,7 +63250,7 @@
         <v>37</v>
       </c>
       <c r="AK555" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="556">
@@ -63258,10 +63258,10 @@
         <v>793</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C556" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" t="s" s="2">
@@ -63287,10 +63287,10 @@
         <v>151</v>
       </c>
       <c r="M556" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="N556" t="s" s="2">
         <v>916</v>
-      </c>
-      <c r="N556" t="s" s="2">
-        <v>917</v>
       </c>
       <c r="O556" s="2"/>
       <c r="P556" s="2"/>
@@ -63341,7 +63341,7 @@
         <v>37</v>
       </c>
       <c r="AG556" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AH556" t="s" s="2">
         <v>44</v>
@@ -63361,10 +63361,10 @@
         <v>793</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C557" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" t="s" s="2">
@@ -63464,10 +63464,10 @@
         <v>793</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C558" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" t="s" s="2">
@@ -63569,10 +63569,10 @@
         <v>793</v>
       </c>
       <c r="B559" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C559" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" t="s" s="2">
@@ -63676,10 +63676,10 @@
         <v>793</v>
       </c>
       <c r="B560" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C560" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" t="s" s="2">
@@ -63702,13 +63702,13 @@
         <v>45</v>
       </c>
       <c r="L560" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="M560" t="s" s="2">
         <v>922</v>
       </c>
-      <c r="M560" t="s" s="2">
+      <c r="N560" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="N560" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="O560" s="2"/>
       <c r="P560" s="2"/>
@@ -63759,7 +63759,7 @@
         <v>37</v>
       </c>
       <c r="AG560" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AH560" t="s" s="2">
         <v>44</v>
@@ -63779,10 +63779,10 @@
         <v>793</v>
       </c>
       <c r="B561" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C561" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" t="s" s="2">
@@ -63882,10 +63882,10 @@
         <v>793</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C562" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" t="s" s="2">
@@ -63987,10 +63987,10 @@
         <v>793</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C563" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" t="s" s="2">
@@ -64016,14 +64016,14 @@
         <v>119</v>
       </c>
       <c r="M563" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="N563" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="N563" t="s" s="2">
-        <v>929</v>
       </c>
       <c r="O563" s="2"/>
       <c r="P563" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="Q563" t="s" s="2">
         <v>37</v>
@@ -64036,7 +64036,7 @@
         <v>37</v>
       </c>
       <c r="U563" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="V563" t="s" s="2">
         <v>37</v>
@@ -64051,28 +64051,28 @@
         <v>137</v>
       </c>
       <c r="Z563" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="AA563" t="s" s="2">
         <v>932</v>
       </c>
-      <c r="AA563" t="s" s="2">
+      <c r="AB563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF563" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG563" t="s" s="2">
         <v>933</v>
-      </c>
-      <c r="AB563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF563" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG563" t="s" s="2">
-        <v>934</v>
       </c>
       <c r="AH563" t="s" s="2">
         <v>38</v>
@@ -64092,10 +64092,10 @@
         <v>793</v>
       </c>
       <c r="B564" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C564" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" t="s" s="2">
@@ -64121,14 +64121,14 @@
         <v>119</v>
       </c>
       <c r="M564" t="s" s="2">
+        <v>935</v>
+      </c>
+      <c r="N564" t="s" s="2">
         <v>936</v>
-      </c>
-      <c r="N564" t="s" s="2">
-        <v>937</v>
       </c>
       <c r="O564" s="2"/>
       <c r="P564" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="Q564" t="s" s="2">
         <v>37</v>
@@ -64141,7 +64141,7 @@
         <v>37</v>
       </c>
       <c r="U564" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="V564" t="s" s="2">
         <v>37</v>
@@ -64177,7 +64177,7 @@
         <v>37</v>
       </c>
       <c r="AG564" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AH564" t="s" s="2">
         <v>38</v>
@@ -64197,10 +64197,10 @@
         <v>793</v>
       </c>
       <c r="B565" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C565" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" t="s" s="2">
@@ -64223,19 +64223,19 @@
         <v>37</v>
       </c>
       <c r="L565" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="M565" t="s" s="2">
         <v>942</v>
       </c>
-      <c r="M565" t="s" s="2">
+      <c r="N565" t="s" s="2">
         <v>943</v>
       </c>
-      <c r="N565" t="s" s="2">
+      <c r="O565" t="s" s="2">
         <v>944</v>
       </c>
-      <c r="O565" t="s" s="2">
+      <c r="P565" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="P565" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="Q565" t="s" s="2">
         <v>37</v>
@@ -64284,7 +64284,7 @@
         <v>37</v>
       </c>
       <c r="AG565" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AH565" t="s" s="2">
         <v>38</v>
@@ -64304,10 +64304,10 @@
         <v>793</v>
       </c>
       <c r="B566" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C566" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" t="s" s="2">
@@ -64330,19 +64330,19 @@
         <v>45</v>
       </c>
       <c r="L566" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="M566" t="s" s="2">
         <v>949</v>
       </c>
-      <c r="M566" t="s" s="2">
+      <c r="N566" t="s" s="2">
         <v>950</v>
       </c>
-      <c r="N566" t="s" s="2">
+      <c r="O566" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="O566" t="s" s="2">
+      <c r="P566" t="s" s="2">
         <v>952</v>
-      </c>
-      <c r="P566" t="s" s="2">
-        <v>953</v>
       </c>
       <c r="Q566" t="s" s="2">
         <v>37</v>
@@ -64355,55 +64355,55 @@
         <v>37</v>
       </c>
       <c r="U566" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="V566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG566" t="s" s="2">
         <v>954</v>
       </c>
-      <c r="V566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG566" t="s" s="2">
+      <c r="AH566" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI566" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ566" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK566" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="AH566" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI566" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ566" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK566" t="s" s="2">
-        <v>956</v>
       </c>
     </row>
     <row r="567">
@@ -64411,10 +64411,10 @@
         <v>793</v>
       </c>
       <c r="B567" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C567" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" t="s" s="2">
@@ -64440,16 +64440,16 @@
         <v>145</v>
       </c>
       <c r="M567" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="N567" t="s" s="2">
         <v>958</v>
       </c>
-      <c r="N567" t="s" s="2">
+      <c r="O567" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="O567" t="s" s="2">
+      <c r="P567" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="P567" t="s" s="2">
-        <v>961</v>
       </c>
       <c r="Q567" t="s" s="2">
         <v>37</v>
@@ -64498,7 +64498,7 @@
         <v>37</v>
       </c>
       <c r="AG567" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AH567" t="s" s="2">
         <v>38</v>
@@ -64518,10 +64518,10 @@
         <v>793</v>
       </c>
       <c r="B568" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C568" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" t="s" s="2">
@@ -64544,19 +64544,19 @@
         <v>45</v>
       </c>
       <c r="L568" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="M568" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="N568" t="s" s="2">
         <v>964</v>
       </c>
-      <c r="N568" t="s" s="2">
+      <c r="O568" t="s" s="2">
         <v>965</v>
       </c>
-      <c r="O568" t="s" s="2">
+      <c r="P568" t="s" s="2">
         <v>966</v>
-      </c>
-      <c r="P568" t="s" s="2">
-        <v>967</v>
       </c>
       <c r="Q568" t="s" s="2">
         <v>37</v>
@@ -64605,7 +64605,7 @@
         <v>37</v>
       </c>
       <c r="AG568" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AH568" t="s" s="2">
         <v>38</v>
@@ -64625,10 +64625,10 @@
         <v>793</v>
       </c>
       <c r="B569" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C569" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" t="s" s="2">
@@ -64654,14 +64654,14 @@
         <v>58</v>
       </c>
       <c r="M569" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="N569" t="s" s="2">
         <v>970</v>
-      </c>
-      <c r="N569" t="s" s="2">
-        <v>971</v>
       </c>
       <c r="O569" s="2"/>
       <c r="P569" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="Q569" t="s" s="2">
         <v>37</v>
@@ -64674,43 +64674,43 @@
         <v>37</v>
       </c>
       <c r="U569" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="V569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF569" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG569" t="s" s="2">
         <v>973</v>
-      </c>
-      <c r="V569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF569" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG569" t="s" s="2">
-        <v>974</v>
       </c>
       <c r="AH569" t="s" s="2">
         <v>38</v>
@@ -64730,10 +64730,10 @@
         <v>793</v>
       </c>
       <c r="B570" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C570" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" t="s" s="2">
@@ -64759,14 +64759,14 @@
         <v>732</v>
       </c>
       <c r="M570" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="N570" t="s" s="2">
         <v>976</v>
-      </c>
-      <c r="N570" t="s" s="2">
-        <v>977</v>
       </c>
       <c r="O570" s="2"/>
       <c r="P570" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="Q570" t="s" s="2">
         <v>37</v>
@@ -64815,7 +64815,7 @@
         <v>37</v>
       </c>
       <c r="AG570" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AH570" t="s" s="2">
         <v>38</v>
@@ -64835,10 +64835,10 @@
         <v>793</v>
       </c>
       <c r="B571" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C571" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" t="s" s="2">
@@ -64864,13 +64864,13 @@
         <v>97</v>
       </c>
       <c r="M571" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="N571" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="N571" t="s" s="2">
+      <c r="O571" t="s" s="2">
         <v>982</v>
-      </c>
-      <c r="O571" t="s" s="2">
-        <v>983</v>
       </c>
       <c r="P571" s="2"/>
       <c r="Q571" t="s" s="2">
@@ -64899,40 +64899,40 @@
         <v>123</v>
       </c>
       <c r="Z571" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="AA571" t="s" s="2">
         <v>984</v>
       </c>
-      <c r="AA571" t="s" s="2">
+      <c r="AB571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG571" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="AH571" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI571" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ571" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK571" t="s" s="2">
         <v>985</v>
-      </c>
-      <c r="AB571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG571" t="s" s="2">
-        <v>980</v>
-      </c>
-      <c r="AH571" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI571" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ571" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK571" t="s" s="2">
-        <v>986</v>
       </c>
     </row>
     <row r="572">
@@ -64940,10 +64940,10 @@
         <v>793</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C572" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" t="s" s="2">
@@ -64969,13 +64969,13 @@
         <v>151</v>
       </c>
       <c r="M572" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="N572" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="N572" t="s" s="2">
+      <c r="O572" t="s" s="2">
         <v>989</v>
-      </c>
-      <c r="O572" t="s" s="2">
-        <v>990</v>
       </c>
       <c r="P572" s="2"/>
       <c r="Q572" t="s" s="2">
@@ -65025,7 +65025,7 @@
         <v>37</v>
       </c>
       <c r="AG572" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AH572" t="s" s="2">
         <v>38</v>
@@ -65045,10 +65045,10 @@
         <v>793</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C573" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" t="s" s="2">
@@ -65148,10 +65148,10 @@
         <v>793</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C574" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" t="s" s="2">
@@ -65253,10 +65253,10 @@
         <v>793</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C575" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" t="s" s="2">
@@ -65360,10 +65360,10 @@
         <v>793</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C576" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" t="s" s="2">
@@ -65386,13 +65386,13 @@
         <v>37</v>
       </c>
       <c r="L576" t="s" s="2">
+        <v>994</v>
+      </c>
+      <c r="M576" t="s" s="2">
         <v>995</v>
       </c>
-      <c r="M576" t="s" s="2">
+      <c r="N576" t="s" s="2">
         <v>996</v>
-      </c>
-      <c r="N576" t="s" s="2">
-        <v>997</v>
       </c>
       <c r="O576" s="2"/>
       <c r="P576" s="2"/>
@@ -65443,7 +65443,7 @@
         <v>37</v>
       </c>
       <c r="AG576" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AH576" t="s" s="2">
         <v>38</v>
@@ -65463,10 +65463,10 @@
         <v>793</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C577" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" t="s" s="2">
@@ -65492,13 +65492,13 @@
         <v>714</v>
       </c>
       <c r="M577" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="N577" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="N577" t="s" s="2">
+      <c r="O577" t="s" s="2">
         <v>1000</v>
-      </c>
-      <c r="O577" t="s" s="2">
-        <v>1001</v>
       </c>
       <c r="P577" s="2"/>
       <c r="Q577" t="s" s="2">
@@ -65527,11 +65527,11 @@
         <v>109</v>
       </c>
       <c r="Z577" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="AA577" t="s" s="2">
         <v>1002</v>
       </c>
-      <c r="AA577" t="s" s="2">
-        <v>1003</v>
-      </c>
       <c r="AB577" t="s" s="2">
         <v>37</v>
       </c>
@@ -65548,7 +65548,7 @@
         <v>37</v>
       </c>
       <c r="AG577" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AH577" t="s" s="2">
         <v>38</v>
@@ -65560,7 +65560,7 @@
         <v>37</v>
       </c>
       <c r="AK577" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="578">
@@ -65568,10 +65568,10 @@
         <v>793</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C578" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" t="s" s="2">
@@ -65594,13 +65594,13 @@
         <v>45</v>
       </c>
       <c r="L578" t="s" s="2">
+        <v>1005</v>
+      </c>
+      <c r="M578" t="s" s="2">
         <v>1006</v>
       </c>
-      <c r="M578" t="s" s="2">
+      <c r="N578" t="s" s="2">
         <v>1007</v>
-      </c>
-      <c r="N578" t="s" s="2">
-        <v>1008</v>
       </c>
       <c r="O578" s="2"/>
       <c r="P578" s="2"/>
@@ -65651,7 +65651,7 @@
         <v>37</v>
       </c>
       <c r="AG578" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AH578" t="s" s="2">
         <v>38</v>
@@ -65671,10 +65671,10 @@
         <v>793</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C579" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" t="s" s="2">
@@ -65774,10 +65774,10 @@
         <v>793</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C580" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" t="s" s="2">
@@ -65879,10 +65879,10 @@
         <v>793</v>
       </c>
       <c r="B581" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C581" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" t="s" s="2">
@@ -65908,13 +65908,13 @@
         <v>732</v>
       </c>
       <c r="M581" t="s" s="2">
+        <v>1011</v>
+      </c>
+      <c r="N581" t="s" s="2">
         <v>1012</v>
       </c>
-      <c r="N581" t="s" s="2">
+      <c r="O581" t="s" s="2">
         <v>1013</v>
-      </c>
-      <c r="O581" t="s" s="2">
-        <v>1014</v>
       </c>
       <c r="P581" s="2"/>
       <c r="Q581" t="s" s="2">
@@ -65964,16 +65964,16 @@
         <v>37</v>
       </c>
       <c r="AG581" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="AH581" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI581" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ581" t="s" s="2">
         <v>1015</v>
-      </c>
-      <c r="AH581" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI581" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ581" t="s" s="2">
-        <v>1016</v>
       </c>
       <c r="AK581" t="s" s="2">
         <v>56</v>
@@ -65984,10 +65984,10 @@
         <v>793</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C582" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" t="s" s="2">
@@ -66013,66 +66013,66 @@
         <v>732</v>
       </c>
       <c r="M582" t="s" s="2">
+        <v>1017</v>
+      </c>
+      <c r="N582" t="s" s="2">
         <v>1018</v>
       </c>
-      <c r="N582" t="s" s="2">
+      <c r="O582" t="s" s="2">
         <v>1019</v>
-      </c>
-      <c r="O582" t="s" s="2">
-        <v>1020</v>
       </c>
       <c r="P582" s="2"/>
       <c r="Q582" t="s" s="2">
         <v>37</v>
       </c>
       <c r="R582" t="s" s="2">
+        <v>1020</v>
+      </c>
+      <c r="S582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF582" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG582" t="s" s="2">
         <v>1021</v>
       </c>
-      <c r="S582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF582" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG582" t="s" s="2">
-        <v>1022</v>
-      </c>
       <c r="AH582" t="s" s="2">
         <v>38</v>
       </c>
@@ -66080,7 +66080,7 @@
         <v>44</v>
       </c>
       <c r="AJ582" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AK582" t="s" s="2">
         <v>56</v>
@@ -66091,10 +66091,10 @@
         <v>793</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C583" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" t="s" s="2">
@@ -66120,10 +66120,10 @@
         <v>714</v>
       </c>
       <c r="M583" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="N583" t="s" s="2">
         <v>1024</v>
-      </c>
-      <c r="N583" t="s" s="2">
-        <v>1025</v>
       </c>
       <c r="O583" s="2"/>
       <c r="P583" s="2"/>
@@ -66153,40 +66153,40 @@
         <v>123</v>
       </c>
       <c r="Z583" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="AA583" t="s" s="2">
         <v>1026</v>
       </c>
-      <c r="AA583" t="s" s="2">
+      <c r="AB583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG583" t="s" s="2">
+        <v>1022</v>
+      </c>
+      <c r="AH583" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI583" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ583" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK583" t="s" s="2">
         <v>1027</v>
-      </c>
-      <c r="AB583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG583" t="s" s="2">
-        <v>1023</v>
-      </c>
-      <c r="AH583" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI583" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ583" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK583" t="s" s="2">
-        <v>1028</v>
       </c>
     </row>
     <row r="584">
@@ -66194,10 +66194,10 @@
         <v>793</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C584" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" t="s" s="2">
@@ -66223,16 +66223,16 @@
         <v>714</v>
       </c>
       <c r="M584" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="N584" t="s" s="2">
         <v>1030</v>
       </c>
-      <c r="N584" t="s" s="2">
+      <c r="O584" t="s" s="2">
         <v>1031</v>
       </c>
-      <c r="O584" t="s" s="2">
+      <c r="P584" t="s" s="2">
         <v>1032</v>
-      </c>
-      <c r="P584" t="s" s="2">
-        <v>1033</v>
       </c>
       <c r="Q584" t="s" s="2">
         <v>37</v>
@@ -66260,11 +66260,11 @@
         <v>123</v>
       </c>
       <c r="Z584" t="s" s="2">
+        <v>1033</v>
+      </c>
+      <c r="AA584" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="AA584" t="s" s="2">
-        <v>1035</v>
-      </c>
       <c r="AB584" t="s" s="2">
         <v>37</v>
       </c>
@@ -66281,7 +66281,7 @@
         <v>37</v>
       </c>
       <c r="AG584" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AH584" t="s" s="2">
         <v>38</v>
@@ -66293,7 +66293,7 @@
         <v>37</v>
       </c>
       <c r="AK584" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="585">
@@ -66301,10 +66301,10 @@
         <v>793</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C585" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" t="s" s="2">
@@ -66327,7 +66327,7 @@
         <v>37</v>
       </c>
       <c r="L585" t="s" s="2">
-        <v>722</v>
+        <v>1036</v>
       </c>
       <c r="M585" t="s" s="2">
         <v>1037</v>
@@ -66384,7 +66384,7 @@
         <v>37</v>
       </c>
       <c r="AG585" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AH585" t="s" s="2">
         <v>38</v>
@@ -69572,13 +69572,13 @@
         <v>45</v>
       </c>
       <c r="L616" t="s" s="2">
-        <v>859</v>
+        <v>722</v>
       </c>
       <c r="M616" t="s" s="2">
         <v>1082</v>
       </c>
       <c r="N616" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O616" s="2"/>
       <c r="P616" s="2"/>
@@ -69649,14 +69649,14 @@
         <v>1069</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C617" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D617" s="2"/>
       <c r="E617" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F617" s="2"/>
       <c r="G617" t="s" s="2">
@@ -69678,13 +69678,13 @@
         <v>79</v>
       </c>
       <c r="M617" t="s" s="2">
+        <v>864</v>
+      </c>
+      <c r="N617" t="s" s="2">
         <v>865</v>
       </c>
-      <c r="N617" t="s" s="2">
+      <c r="O617" t="s" s="2">
         <v>866</v>
-      </c>
-      <c r="O617" t="s" s="2">
-        <v>867</v>
       </c>
       <c r="P617" s="2"/>
       <c r="Q617" t="s" s="2">
@@ -69734,7 +69734,7 @@
         <v>37</v>
       </c>
       <c r="AG617" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AH617" t="s" s="2">
         <v>38</v>
@@ -69754,10 +69754,10 @@
         <v>1069</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C618" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D618" s="2"/>
       <c r="E618" t="s" s="2">
@@ -69783,13 +69783,13 @@
         <v>1083</v>
       </c>
       <c r="M618" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="N618" t="s" s="2">
         <v>870</v>
       </c>
-      <c r="N618" t="s" s="2">
+      <c r="O618" t="s" s="2">
         <v>871</v>
-      </c>
-      <c r="O618" t="s" s="2">
-        <v>872</v>
       </c>
       <c r="P618" s="2"/>
       <c r="Q618" t="s" s="2">
@@ -69839,7 +69839,7 @@
         <v>37</v>
       </c>
       <c r="AG618" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AH618" t="s" s="2">
         <v>38</v>
@@ -69851,7 +69851,7 @@
         <v>37</v>
       </c>
       <c r="AK618" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="619">
@@ -69859,10 +69859,10 @@
         <v>1069</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C619" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D619" s="2"/>
       <c r="E619" t="s" s="2">
@@ -69891,10 +69891,10 @@
         <v>1084</v>
       </c>
       <c r="N619" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="O619" t="s" s="2">
         <v>877</v>
-      </c>
-      <c r="O619" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="P619" s="2"/>
       <c r="Q619" t="s" s="2">
@@ -69944,7 +69944,7 @@
         <v>37</v>
       </c>
       <c r="AG619" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AH619" t="s" s="2">
         <v>38</v>
@@ -69956,7 +69956,7 @@
         <v>37</v>
       </c>
       <c r="AK619" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="620">
@@ -69964,10 +69964,10 @@
         <v>1069</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C620" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D620" s="2"/>
       <c r="E620" t="s" s="2">
@@ -69990,16 +69990,16 @@
         <v>37</v>
       </c>
       <c r="L620" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="M620" t="s" s="2">
         <v>881</v>
       </c>
-      <c r="M620" t="s" s="2">
+      <c r="N620" t="s" s="2">
         <v>882</v>
       </c>
-      <c r="N620" t="s" s="2">
+      <c r="O620" t="s" s="2">
         <v>883</v>
-      </c>
-      <c r="O620" t="s" s="2">
-        <v>884</v>
       </c>
       <c r="P620" s="2"/>
       <c r="Q620" t="s" s="2">
@@ -70049,7 +70049,7 @@
         <v>37</v>
       </c>
       <c r="AG620" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AH620" t="s" s="2">
         <v>38</v>
@@ -70069,10 +70069,10 @@
         <v>1069</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C621" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D621" s="2"/>
       <c r="E621" t="s" s="2">
@@ -70104,7 +70104,7 @@
         <v>1086</v>
       </c>
       <c r="O621" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="P621" s="2"/>
       <c r="Q621" t="s" s="2">
@@ -70154,7 +70154,7 @@
         <v>37</v>
       </c>
       <c r="AG621" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AH621" t="s" s="2">
         <v>38</v>
@@ -70174,10 +70174,10 @@
         <v>1069</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C622" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D622" s="2"/>
       <c r="E622" t="s" s="2">
@@ -70277,10 +70277,10 @@
         <v>1069</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C623" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D623" s="2"/>
       <c r="E623" t="s" s="2">
@@ -70382,10 +70382,10 @@
         <v>1069</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C624" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D624" s="2"/>
       <c r="E624" t="s" s="2">
@@ -70489,10 +70489,10 @@
         <v>1069</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C625" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D625" s="2"/>
       <c r="E625" t="s" s="2">
@@ -70521,10 +70521,10 @@
         <v>1087</v>
       </c>
       <c r="N625" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="O625" t="s" s="2">
         <v>895</v>
-      </c>
-      <c r="O625" t="s" s="2">
-        <v>896</v>
       </c>
       <c r="P625" s="2"/>
       <c r="Q625" t="s" s="2">
@@ -70553,11 +70553,11 @@
         <v>137</v>
       </c>
       <c r="Z625" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="AA625" t="s" s="2">
         <v>897</v>
       </c>
-      <c r="AA625" t="s" s="2">
-        <v>898</v>
-      </c>
       <c r="AB625" t="s" s="2">
         <v>37</v>
       </c>
@@ -70574,7 +70574,7 @@
         <v>37</v>
       </c>
       <c r="AG625" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AH625" t="s" s="2">
         <v>44</v>
@@ -70594,10 +70594,10 @@
         <v>1069</v>
       </c>
       <c r="B626" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C626" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D626" s="2"/>
       <c r="E626" t="s" s="2">
@@ -70620,13 +70620,13 @@
         <v>45</v>
       </c>
       <c r="L626" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="M626" t="s" s="2">
         <v>1088</v>
       </c>
       <c r="N626" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="O626" s="2"/>
       <c r="P626" s="2"/>
@@ -70677,7 +70677,7 @@
         <v>37</v>
       </c>
       <c r="AG626" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AH626" t="s" s="2">
         <v>44</v>
@@ -70697,10 +70697,10 @@
         <v>1069</v>
       </c>
       <c r="B627" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C627" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D627" s="2"/>
       <c r="E627" t="s" s="2">
@@ -70726,16 +70726,16 @@
         <v>58</v>
       </c>
       <c r="M627" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="N627" t="s" s="2">
         <v>905</v>
       </c>
-      <c r="N627" t="s" s="2">
+      <c r="O627" t="s" s="2">
         <v>906</v>
       </c>
-      <c r="O627" t="s" s="2">
+      <c r="P627" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="P627" t="s" s="2">
-        <v>908</v>
       </c>
       <c r="Q627" t="s" s="2">
         <v>37</v>
@@ -70784,7 +70784,7 @@
         <v>37</v>
       </c>
       <c r="AG627" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AH627" t="s" s="2">
         <v>38</v>
@@ -70804,10 +70804,10 @@
         <v>1069</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C628" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D628" s="2"/>
       <c r="E628" t="s" s="2">
@@ -70833,16 +70833,16 @@
         <v>714</v>
       </c>
       <c r="M628" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="N628" t="s" s="2">
         <v>910</v>
       </c>
-      <c r="N628" t="s" s="2">
+      <c r="O628" t="s" s="2">
         <v>911</v>
       </c>
-      <c r="O628" t="s" s="2">
+      <c r="P628" t="s" s="2">
         <v>912</v>
-      </c>
-      <c r="P628" t="s" s="2">
-        <v>913</v>
       </c>
       <c r="Q628" t="s" s="2">
         <v>37</v>
@@ -70891,7 +70891,7 @@
         <v>37</v>
       </c>
       <c r="AG628" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AH628" t="s" s="2">
         <v>38</v>
@@ -70903,7 +70903,7 @@
         <v>37</v>
       </c>
       <c r="AK628" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="629">
@@ -70911,10 +70911,10 @@
         <v>1069</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C629" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D629" s="2"/>
       <c r="E629" t="s" s="2">
@@ -70943,7 +70943,7 @@
         <v>1089</v>
       </c>
       <c r="N629" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O629" s="2"/>
       <c r="P629" s="2"/>
@@ -70994,7 +70994,7 @@
         <v>37</v>
       </c>
       <c r="AG629" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AH629" t="s" s="2">
         <v>44</v>
@@ -71014,10 +71014,10 @@
         <v>1069</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C630" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D630" s="2"/>
       <c r="E630" t="s" s="2">
@@ -71117,10 +71117,10 @@
         <v>1069</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C631" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D631" s="2"/>
       <c r="E631" t="s" s="2">
@@ -71222,10 +71222,10 @@
         <v>1069</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C632" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D632" s="2"/>
       <c r="E632" t="s" s="2">
@@ -71329,10 +71329,10 @@
         <v>1069</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C633" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D633" s="2"/>
       <c r="E633" t="s" s="2">
@@ -71355,13 +71355,13 @@
         <v>45</v>
       </c>
       <c r="L633" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="M633" t="s" s="2">
         <v>922</v>
       </c>
-      <c r="M633" t="s" s="2">
+      <c r="N633" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="N633" t="s" s="2">
-        <v>924</v>
       </c>
       <c r="O633" s="2"/>
       <c r="P633" s="2"/>
@@ -71412,7 +71412,7 @@
         <v>37</v>
       </c>
       <c r="AG633" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AH633" t="s" s="2">
         <v>44</v>
@@ -71432,10 +71432,10 @@
         <v>1069</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C634" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D634" s="2"/>
       <c r="E634" t="s" s="2">
@@ -71535,10 +71535,10 @@
         <v>1069</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C635" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D635" s="2"/>
       <c r="E635" t="s" s="2">
@@ -71640,10 +71640,10 @@
         <v>1069</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C636" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D636" s="2"/>
       <c r="E636" t="s" s="2">
@@ -71669,14 +71669,14 @@
         <v>119</v>
       </c>
       <c r="M636" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="N636" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="N636" t="s" s="2">
-        <v>929</v>
       </c>
       <c r="O636" s="2"/>
       <c r="P636" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="Q636" t="s" s="2">
         <v>37</v>
@@ -71689,7 +71689,7 @@
         <v>37</v>
       </c>
       <c r="U636" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="V636" t="s" s="2">
         <v>37</v>
@@ -71704,28 +71704,28 @@
         <v>137</v>
       </c>
       <c r="Z636" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="AA636" t="s" s="2">
         <v>932</v>
       </c>
-      <c r="AA636" t="s" s="2">
+      <c r="AB636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF636" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG636" t="s" s="2">
         <v>933</v>
-      </c>
-      <c r="AB636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF636" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG636" t="s" s="2">
-        <v>934</v>
       </c>
       <c r="AH636" t="s" s="2">
         <v>38</v>
@@ -71745,10 +71745,10 @@
         <v>1069</v>
       </c>
       <c r="B637" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C637" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D637" s="2"/>
       <c r="E637" t="s" s="2">
@@ -71774,14 +71774,14 @@
         <v>119</v>
       </c>
       <c r="M637" t="s" s="2">
+        <v>935</v>
+      </c>
+      <c r="N637" t="s" s="2">
         <v>936</v>
-      </c>
-      <c r="N637" t="s" s="2">
-        <v>937</v>
       </c>
       <c r="O637" s="2"/>
       <c r="P637" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="Q637" t="s" s="2">
         <v>37</v>
@@ -71794,7 +71794,7 @@
         <v>37</v>
       </c>
       <c r="U637" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="V637" t="s" s="2">
         <v>37</v>
@@ -71830,7 +71830,7 @@
         <v>37</v>
       </c>
       <c r="AG637" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AH637" t="s" s="2">
         <v>38</v>
@@ -71850,10 +71850,10 @@
         <v>1069</v>
       </c>
       <c r="B638" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C638" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D638" s="2"/>
       <c r="E638" t="s" s="2">
@@ -71876,19 +71876,19 @@
         <v>37</v>
       </c>
       <c r="L638" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="M638" t="s" s="2">
         <v>1090</v>
       </c>
       <c r="N638" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="O638" t="s" s="2">
         <v>944</v>
       </c>
-      <c r="O638" t="s" s="2">
+      <c r="P638" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="P638" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="Q638" t="s" s="2">
         <v>37</v>
@@ -71937,7 +71937,7 @@
         <v>37</v>
       </c>
       <c r="AG638" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AH638" t="s" s="2">
         <v>38</v>
@@ -71957,10 +71957,10 @@
         <v>1069</v>
       </c>
       <c r="B639" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C639" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D639" s="2"/>
       <c r="E639" t="s" s="2">
@@ -71983,19 +71983,19 @@
         <v>45</v>
       </c>
       <c r="L639" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="M639" t="s" s="2">
         <v>1091</v>
       </c>
       <c r="N639" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="O639" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="O639" t="s" s="2">
+      <c r="P639" t="s" s="2">
         <v>952</v>
-      </c>
-      <c r="P639" t="s" s="2">
-        <v>953</v>
       </c>
       <c r="Q639" t="s" s="2">
         <v>37</v>
@@ -72008,43 +72008,43 @@
         <v>37</v>
       </c>
       <c r="U639" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="V639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF639" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG639" t="s" s="2">
         <v>954</v>
-      </c>
-      <c r="V639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF639" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG639" t="s" s="2">
-        <v>955</v>
       </c>
       <c r="AH639" t="s" s="2">
         <v>38</v>
@@ -72064,10 +72064,10 @@
         <v>1069</v>
       </c>
       <c r="B640" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C640" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D640" s="2"/>
       <c r="E640" t="s" s="2">
@@ -72093,16 +72093,16 @@
         <v>145</v>
       </c>
       <c r="M640" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="N640" t="s" s="2">
         <v>958</v>
       </c>
-      <c r="N640" t="s" s="2">
+      <c r="O640" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="O640" t="s" s="2">
+      <c r="P640" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="P640" t="s" s="2">
-        <v>961</v>
       </c>
       <c r="Q640" t="s" s="2">
         <v>37</v>
@@ -72151,7 +72151,7 @@
         <v>37</v>
       </c>
       <c r="AG640" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AH640" t="s" s="2">
         <v>38</v>
@@ -72171,10 +72171,10 @@
         <v>1069</v>
       </c>
       <c r="B641" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C641" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D641" s="2"/>
       <c r="E641" t="s" s="2">
@@ -72197,19 +72197,19 @@
         <v>45</v>
       </c>
       <c r="L641" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="M641" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="N641" t="s" s="2">
         <v>964</v>
       </c>
-      <c r="N641" t="s" s="2">
+      <c r="O641" t="s" s="2">
         <v>965</v>
       </c>
-      <c r="O641" t="s" s="2">
+      <c r="P641" t="s" s="2">
         <v>966</v>
-      </c>
-      <c r="P641" t="s" s="2">
-        <v>967</v>
       </c>
       <c r="Q641" t="s" s="2">
         <v>37</v>
@@ -72258,7 +72258,7 @@
         <v>37</v>
       </c>
       <c r="AG641" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AH641" t="s" s="2">
         <v>38</v>
@@ -72278,10 +72278,10 @@
         <v>1069</v>
       </c>
       <c r="B642" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C642" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D642" s="2"/>
       <c r="E642" t="s" s="2">
@@ -72307,14 +72307,14 @@
         <v>58</v>
       </c>
       <c r="M642" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="N642" t="s" s="2">
         <v>970</v>
-      </c>
-      <c r="N642" t="s" s="2">
-        <v>971</v>
       </c>
       <c r="O642" s="2"/>
       <c r="P642" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="Q642" t="s" s="2">
         <v>37</v>
@@ -72327,43 +72327,43 @@
         <v>37</v>
       </c>
       <c r="U642" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="V642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF642" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG642" t="s" s="2">
         <v>973</v>
-      </c>
-      <c r="V642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF642" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG642" t="s" s="2">
-        <v>974</v>
       </c>
       <c r="AH642" t="s" s="2">
         <v>38</v>
@@ -72383,10 +72383,10 @@
         <v>1069</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C643" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D643" s="2"/>
       <c r="E643" t="s" s="2">
@@ -72415,11 +72415,11 @@
         <v>1092</v>
       </c>
       <c r="N643" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="O643" s="2"/>
       <c r="P643" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="Q643" t="s" s="2">
         <v>37</v>
@@ -72468,7 +72468,7 @@
         <v>37</v>
       </c>
       <c r="AG643" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AH643" t="s" s="2">
         <v>38</v>
@@ -72488,10 +72488,10 @@
         <v>1069</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C644" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D644" s="2"/>
       <c r="E644" t="s" s="2">
@@ -72517,13 +72517,13 @@
         <v>97</v>
       </c>
       <c r="M644" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="N644" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="N644" t="s" s="2">
+      <c r="O644" t="s" s="2">
         <v>982</v>
-      </c>
-      <c r="O644" t="s" s="2">
-        <v>983</v>
       </c>
       <c r="P644" s="2"/>
       <c r="Q644" t="s" s="2">
@@ -72552,40 +72552,40 @@
         <v>123</v>
       </c>
       <c r="Z644" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="AA644" t="s" s="2">
         <v>984</v>
       </c>
-      <c r="AA644" t="s" s="2">
+      <c r="AB644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG644" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="AH644" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI644" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ644" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK644" t="s" s="2">
         <v>985</v>
-      </c>
-      <c r="AB644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG644" t="s" s="2">
-        <v>980</v>
-      </c>
-      <c r="AH644" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI644" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ644" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK644" t="s" s="2">
-        <v>986</v>
       </c>
     </row>
     <row r="645">
@@ -72593,10 +72593,10 @@
         <v>1069</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C645" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D645" s="2"/>
       <c r="E645" t="s" s="2">
@@ -72622,13 +72622,13 @@
         <v>151</v>
       </c>
       <c r="M645" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="N645" t="s" s="2">
         <v>988</v>
       </c>
-      <c r="N645" t="s" s="2">
+      <c r="O645" t="s" s="2">
         <v>989</v>
-      </c>
-      <c r="O645" t="s" s="2">
-        <v>990</v>
       </c>
       <c r="P645" s="2"/>
       <c r="Q645" t="s" s="2">
@@ -72678,7 +72678,7 @@
         <v>37</v>
       </c>
       <c r="AG645" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AH645" t="s" s="2">
         <v>38</v>
@@ -72698,10 +72698,10 @@
         <v>1069</v>
       </c>
       <c r="B646" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C646" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D646" s="2"/>
       <c r="E646" t="s" s="2">
@@ -72801,10 +72801,10 @@
         <v>1069</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C647" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D647" s="2"/>
       <c r="E647" t="s" s="2">
@@ -72906,10 +72906,10 @@
         <v>1069</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C648" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D648" s="2"/>
       <c r="E648" t="s" s="2">
@@ -73013,10 +73013,10 @@
         <v>1069</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C649" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D649" s="2"/>
       <c r="E649" t="s" s="2">
@@ -73039,13 +73039,13 @@
         <v>37</v>
       </c>
       <c r="L649" t="s" s="2">
+        <v>994</v>
+      </c>
+      <c r="M649" t="s" s="2">
         <v>995</v>
       </c>
-      <c r="M649" t="s" s="2">
+      <c r="N649" t="s" s="2">
         <v>996</v>
-      </c>
-      <c r="N649" t="s" s="2">
-        <v>997</v>
       </c>
       <c r="O649" s="2"/>
       <c r="P649" s="2"/>
@@ -73096,7 +73096,7 @@
         <v>37</v>
       </c>
       <c r="AG649" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AH649" t="s" s="2">
         <v>38</v>
@@ -73116,10 +73116,10 @@
         <v>1069</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C650" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D650" s="2"/>
       <c r="E650" t="s" s="2">
@@ -73145,13 +73145,13 @@
         <v>714</v>
       </c>
       <c r="M650" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="N650" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="N650" t="s" s="2">
+      <c r="O650" t="s" s="2">
         <v>1000</v>
-      </c>
-      <c r="O650" t="s" s="2">
-        <v>1001</v>
       </c>
       <c r="P650" s="2"/>
       <c r="Q650" t="s" s="2">
@@ -73180,11 +73180,11 @@
         <v>109</v>
       </c>
       <c r="Z650" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="AA650" t="s" s="2">
         <v>1002</v>
       </c>
-      <c r="AA650" t="s" s="2">
-        <v>1003</v>
-      </c>
       <c r="AB650" t="s" s="2">
         <v>37</v>
       </c>
@@ -73201,7 +73201,7 @@
         <v>37</v>
       </c>
       <c r="AG650" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AH650" t="s" s="2">
         <v>38</v>
@@ -73213,7 +73213,7 @@
         <v>37</v>
       </c>
       <c r="AK650" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="651">
@@ -73221,10 +73221,10 @@
         <v>1069</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C651" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D651" s="2"/>
       <c r="E651" t="s" s="2">
@@ -73247,13 +73247,13 @@
         <v>45</v>
       </c>
       <c r="L651" t="s" s="2">
+        <v>1005</v>
+      </c>
+      <c r="M651" t="s" s="2">
         <v>1006</v>
       </c>
-      <c r="M651" t="s" s="2">
+      <c r="N651" t="s" s="2">
         <v>1007</v>
-      </c>
-      <c r="N651" t="s" s="2">
-        <v>1008</v>
       </c>
       <c r="O651" s="2"/>
       <c r="P651" s="2"/>
@@ -73304,7 +73304,7 @@
         <v>37</v>
       </c>
       <c r="AG651" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AH651" t="s" s="2">
         <v>38</v>
@@ -73324,10 +73324,10 @@
         <v>1069</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C652" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D652" s="2"/>
       <c r="E652" t="s" s="2">
@@ -73353,10 +73353,10 @@
         <v>714</v>
       </c>
       <c r="M652" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="N652" t="s" s="2">
         <v>1024</v>
-      </c>
-      <c r="N652" t="s" s="2">
-        <v>1025</v>
       </c>
       <c r="O652" s="2"/>
       <c r="P652" s="2"/>
@@ -73386,11 +73386,11 @@
         <v>123</v>
       </c>
       <c r="Z652" t="s" s="2">
+        <v>1025</v>
+      </c>
+      <c r="AA652" t="s" s="2">
         <v>1026</v>
       </c>
-      <c r="AA652" t="s" s="2">
-        <v>1027</v>
-      </c>
       <c r="AB652" t="s" s="2">
         <v>37</v>
       </c>
@@ -73407,7 +73407,7 @@
         <v>37</v>
       </c>
       <c r="AG652" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AH652" t="s" s="2">
         <v>38</v>
@@ -73427,10 +73427,10 @@
         <v>1069</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C653" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D653" s="2"/>
       <c r="E653" t="s" s="2">
@@ -73456,16 +73456,16 @@
         <v>714</v>
       </c>
       <c r="M653" t="s" s="2">
+        <v>1029</v>
+      </c>
+      <c r="N653" t="s" s="2">
         <v>1030</v>
       </c>
-      <c r="N653" t="s" s="2">
+      <c r="O653" t="s" s="2">
         <v>1031</v>
       </c>
-      <c r="O653" t="s" s="2">
+      <c r="P653" t="s" s="2">
         <v>1032</v>
-      </c>
-      <c r="P653" t="s" s="2">
-        <v>1033</v>
       </c>
       <c r="Q653" t="s" s="2">
         <v>37</v>
@@ -73493,11 +73493,11 @@
         <v>123</v>
       </c>
       <c r="Z653" t="s" s="2">
+        <v>1033</v>
+      </c>
+      <c r="AA653" t="s" s="2">
         <v>1034</v>
       </c>
-      <c r="AA653" t="s" s="2">
-        <v>1035</v>
-      </c>
       <c r="AB653" t="s" s="2">
         <v>37</v>
       </c>
@@ -73514,7 +73514,7 @@
         <v>37</v>
       </c>
       <c r="AG653" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AH653" t="s" s="2">
         <v>38</v>
@@ -73534,10 +73534,10 @@
         <v>1069</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C654" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D654" s="2"/>
       <c r="E654" t="s" s="2">
@@ -73560,7 +73560,7 @@
         <v>37</v>
       </c>
       <c r="L654" t="s" s="2">
-        <v>722</v>
+        <v>1036</v>
       </c>
       <c r="M654" t="s" s="2">
         <v>1037</v>
@@ -73617,7 +73617,7 @@
         <v>37</v>
       </c>
       <c r="AG654" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="AH654" t="s" s="2">
         <v>38</v>
@@ -77726,7 +77726,7 @@
         <v>45</v>
       </c>
       <c r="L694" t="s" s="2">
-        <v>859</v>
+        <v>722</v>
       </c>
       <c r="M694" t="s" s="2">
         <v>1037</v>
@@ -78043,7 +78043,7 @@
         <v>45</v>
       </c>
       <c r="L697" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M697" t="s" s="2">
         <v>1145</v>

--- a/ig/nr-change-contained/all-profiles.xlsx
+++ b/ig/nr-change-contained/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-12T08:17:11+00:00</t>
+    <t>2023-07-12T08:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2521,7 +2521,7 @@
     <t>DocumentReference.meta.versionId</t>
   </si>
   <si>
-    <t>Numéro de version de la fiche d’un document attribués par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche. Cet élément est requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche.</t>
+    <t>Numéro de version de la fiche d’un document attribué par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche. Cet élément est requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche.</t>
   </si>
   <si>
     <t>DocumentReference.meta.lastUpdated</t>
